--- a/othello/player_prog/result/rate_excel/EPT8500.xlsx
+++ b/othello/player_prog/result/rate_excel/EPT8500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/board1rateT_EPT8500/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D0C7F-D305-774B-83D2-B8798315216E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C75880E-C9BF-BB4F-9900-C4181719EA62}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>random100</t>
   </si>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>AlphaBeta4</t>
-  </si>
-  <si>
-    <t>ave</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -399,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -439,31 +435,31 @@
         <v>130</v>
       </c>
       <c r="B2">
-        <v>661.98749267873563</v>
+        <v>670.21491603429968</v>
       </c>
       <c r="C2">
-        <v>1082.613356777415</v>
+        <v>1093.360123424347</v>
       </c>
       <c r="D2">
-        <v>1097.5815698631279</v>
+        <v>1108.744486812257</v>
       </c>
       <c r="E2">
-        <v>1199.6330261058581</v>
+        <v>1210.8034031906409</v>
       </c>
       <c r="F2">
-        <v>1777.183520906276</v>
+        <v>1796.0067151850251</v>
       </c>
       <c r="G2">
-        <v>2154.9274606394888</v>
+        <v>2177.8256160020101</v>
       </c>
       <c r="H2">
-        <v>1364.2168785999841</v>
+        <v>1377.3835187143679</v>
       </c>
       <c r="I2">
-        <v>1799.5533418626389</v>
+        <v>1817.495017285393</v>
       </c>
       <c r="J2">
-        <v>2224.8748021739189</v>
+        <v>2248.1662033516609</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -503,31 +499,31 @@
         <v>789</v>
       </c>
       <c r="B4">
-        <v>627.36298385487726</v>
+        <v>659.85221982824737</v>
       </c>
       <c r="C4">
-        <v>1019.791470728778</v>
+        <v>1060.819641247984</v>
       </c>
       <c r="D4">
-        <v>1026.0693966720189</v>
+        <v>1068.075211799468</v>
       </c>
       <c r="E4">
-        <v>1130.10067463062</v>
+        <v>1173.219107352229</v>
       </c>
       <c r="F4">
-        <v>1745.8712089855419</v>
+        <v>1822.8988389707661</v>
       </c>
       <c r="G4">
-        <v>2158.3198697412672</v>
+        <v>2250.07648656947</v>
       </c>
       <c r="H4">
-        <v>1293.5549380420789</v>
+        <v>1342.6585337130091</v>
       </c>
       <c r="I4">
-        <v>1779.9023886986629</v>
+        <v>1855.5306095297451</v>
       </c>
       <c r="J4">
-        <v>2175.6569212308232</v>
+        <v>2266.86935098908</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -535,31 +531,31 @@
         <v>680</v>
       </c>
       <c r="B5">
-        <v>762.36412940478863</v>
+        <v>771.73793067493511</v>
       </c>
       <c r="C5">
-        <v>990.49346574842275</v>
+        <v>1001.369620463479</v>
       </c>
       <c r="D5">
-        <v>1199.543912641647</v>
+        <v>1210.984242307615</v>
       </c>
       <c r="E5">
-        <v>1356.944005377753</v>
+        <v>1370.663277096043</v>
       </c>
       <c r="F5">
-        <v>1852.7271752103291</v>
+        <v>1870.3316338187681</v>
       </c>
       <c r="G5">
-        <v>2127.2866226737979</v>
+        <v>2146.38371243043</v>
       </c>
       <c r="H5">
-        <v>1312.1365053337511</v>
+        <v>1324.5076347127799</v>
       </c>
       <c r="I5">
-        <v>1657.7231063548511</v>
+        <v>1673.856892982807</v>
       </c>
       <c r="J5">
-        <v>2111.5892069024708</v>
+        <v>2130.1650555131368</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -567,31 +563,31 @@
         <v>891</v>
       </c>
       <c r="B6">
-        <v>763.57878407365365</v>
+        <v>772.9561716281795</v>
       </c>
       <c r="C6">
-        <v>991.56737771087433</v>
+        <v>1002.446760079403</v>
       </c>
       <c r="D6">
-        <v>1203.2875986006991</v>
+        <v>1214.738843013361</v>
       </c>
       <c r="E6">
-        <v>1356.9836505246481</v>
+        <v>1370.6853799247931</v>
       </c>
       <c r="F6">
-        <v>1845.2045027793961</v>
+        <v>1862.673911259059</v>
       </c>
       <c r="G6">
-        <v>2133.3822333549051</v>
+        <v>2152.3775613513599</v>
       </c>
       <c r="H6">
-        <v>1312.285596618746</v>
+        <v>1324.6463174729449</v>
       </c>
       <c r="I6">
-        <v>1652.867525938892</v>
+        <v>1668.878414612559</v>
       </c>
       <c r="J6">
-        <v>2112.0836241148518</v>
+        <v>2130.5966406583411</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -631,31 +627,31 @@
         <v>954</v>
       </c>
       <c r="B8">
-        <v>568.16033245374706</v>
+        <v>642.28956083193987</v>
       </c>
       <c r="C8">
-        <v>976.25827605153154</v>
+        <v>1074.804128539454</v>
       </c>
       <c r="D8">
-        <v>1018.560187100791</v>
+        <v>1119.864017907807</v>
       </c>
       <c r="E8">
-        <v>1101.4860998991951</v>
+        <v>1205.4778270500119</v>
       </c>
       <c r="F8">
-        <v>1659.082988263016</v>
+        <v>1825.9490614858751</v>
       </c>
       <c r="G8">
-        <v>2037.894795498938</v>
+        <v>2234.8062038088442</v>
       </c>
       <c r="H8">
-        <v>1253.9676665681441</v>
+        <v>1370.143809020916</v>
       </c>
       <c r="I8">
-        <v>1678.0943763805069</v>
+        <v>1842.7464861393801</v>
       </c>
       <c r="J8">
-        <v>1991.9135099399739</v>
+        <v>2183.9189052157681</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -663,31 +659,31 @@
         <v>995</v>
       </c>
       <c r="B9">
-        <v>655.97701999862147</v>
+        <v>664.12776600643861</v>
       </c>
       <c r="C9">
-        <v>1097.793871308035</v>
+        <v>1108.509139538575</v>
       </c>
       <c r="D9">
-        <v>1102.766956445492</v>
+        <v>1113.82873483142</v>
       </c>
       <c r="E9">
-        <v>1191.630929381319</v>
+        <v>1202.6506012146001</v>
       </c>
       <c r="F9">
-        <v>1833.8932229824229</v>
+        <v>1853.742007684848</v>
       </c>
       <c r="G9">
-        <v>2162.257859238855</v>
+        <v>2184.7028614540909</v>
       </c>
       <c r="H9">
-        <v>1332.785810695899</v>
+        <v>1345.4122635953911</v>
       </c>
       <c r="I9">
-        <v>1792.677897136409</v>
+        <v>1810.997317773943</v>
       </c>
       <c r="J9">
-        <v>2193.2524752977092</v>
+        <v>2216.0293079006919</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -695,31 +691,31 @@
         <v>361</v>
       </c>
       <c r="B10">
-        <v>2690.203435423894</v>
+        <v>498.49409964650948</v>
       </c>
       <c r="C10">
-        <v>15750.86877857228</v>
+        <v>977.9922665649276</v>
       </c>
       <c r="D10">
-        <v>15930.868465923009</v>
+        <v>1076.2317219668901</v>
       </c>
       <c r="E10">
-        <v>17629.567519881999</v>
+        <v>1172.0524430065459</v>
       </c>
       <c r="F10">
-        <v>55176.881468011263</v>
+        <v>1997.912401197731</v>
       </c>
       <c r="G10">
-        <v>46654.48607234894</v>
+        <v>2416.7637341653731</v>
       </c>
       <c r="H10">
-        <v>21499.231496583951</v>
+        <v>1246.3263036766921</v>
       </c>
       <c r="I10">
-        <v>37133.741510053449</v>
+        <v>1847.330644048787</v>
       </c>
       <c r="J10">
-        <v>44606.559485064819</v>
+        <v>2266.8963857265421</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -727,31 +723,31 @@
         <v>673</v>
       </c>
       <c r="B11">
-        <v>524.87031971352178</v>
+        <v>668.36713435033755</v>
       </c>
       <c r="C11">
-        <v>895.16069874484788</v>
+        <v>1080.0049861950099</v>
       </c>
       <c r="D11">
-        <v>921.83581757153502</v>
+        <v>1109.4593729667979</v>
       </c>
       <c r="E11">
-        <v>1028.7365142311</v>
+        <v>1226.3853502695661</v>
       </c>
       <c r="F11">
-        <v>1560.5399403144929</v>
+        <v>1844.6263723197901</v>
       </c>
       <c r="G11">
-        <v>1834.2046009876669</v>
+        <v>2169.1955977495782</v>
       </c>
       <c r="H11">
-        <v>1255.762506884286</v>
+        <v>1487.4268400961009</v>
       </c>
       <c r="I11">
-        <v>1408.286795394278</v>
+        <v>1659.357700193407</v>
       </c>
       <c r="J11">
-        <v>1912.2781862737249</v>
+        <v>2255.176645859412</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -759,31 +755,31 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>414.93542964576449</v>
+        <v>630.24612004376252</v>
       </c>
       <c r="C12">
-        <v>812.69350374082046</v>
+        <v>1092.750146126247</v>
       </c>
       <c r="D12">
-        <v>797.18176908386272</v>
+        <v>1076.117052370693</v>
       </c>
       <c r="E12">
-        <v>891.70891868919136</v>
+        <v>1181.5650157104251</v>
       </c>
       <c r="F12">
-        <v>1493.4935361831019</v>
+        <v>1980.573025680992</v>
       </c>
       <c r="G12">
-        <v>1702.6271864147141</v>
+        <v>2224.7565895437019</v>
       </c>
       <c r="H12">
-        <v>1014.3383871255199</v>
+        <v>1329.8836045018129</v>
       </c>
       <c r="I12">
-        <v>1378.2907588701239</v>
+        <v>1829.168037116553</v>
       </c>
       <c r="J12">
-        <v>1641.9865126725831</v>
+        <v>2154.9404089058089</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -791,31 +787,31 @@
         <v>399</v>
       </c>
       <c r="B13">
-        <v>488.89596956715701</v>
+        <v>727.83484216901195</v>
       </c>
       <c r="C13">
-        <v>838.58824350536486</v>
+        <v>1139.569797545872</v>
       </c>
       <c r="D13">
-        <v>860.94566795066817</v>
+        <v>1165.5663196526491</v>
       </c>
       <c r="E13">
-        <v>953.92015502955257</v>
+        <v>1271.565717709896</v>
       </c>
       <c r="F13">
-        <v>1397.084043026307</v>
+        <v>1809.5661420710121</v>
       </c>
       <c r="G13">
-        <v>1677.5855171113251</v>
+        <v>2149.6078563069909</v>
       </c>
       <c r="H13">
-        <v>1128.1083558548719</v>
+        <v>1480.5068974744399</v>
       </c>
       <c r="I13">
-        <v>1350.693196536397</v>
+        <v>1749.4002136199849</v>
       </c>
       <c r="J13">
-        <v>1561.5232666062741</v>
+        <v>2006.3822134501411</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -823,31 +819,31 @@
         <v>417</v>
       </c>
       <c r="B14">
-        <v>668.71394329025725</v>
+        <v>749.07545301937239</v>
       </c>
       <c r="C14">
-        <v>956.85084075341183</v>
+        <v>1051.6187583647261</v>
       </c>
       <c r="D14">
-        <v>1044.2544915258579</v>
+        <v>1141.473067884338</v>
       </c>
       <c r="E14">
-        <v>1173.0758333908771</v>
+        <v>1279.412650465325</v>
       </c>
       <c r="F14">
-        <v>1771.2992349868359</v>
+        <v>1935.426071764035</v>
       </c>
       <c r="G14">
-        <v>1763.2887312915891</v>
+        <v>1929.9085079763679</v>
       </c>
       <c r="H14">
-        <v>1224.4148415679699</v>
+        <v>1331.0095033596831</v>
       </c>
       <c r="I14">
-        <v>1728.283530173966</v>
+        <v>1891.926718519687</v>
       </c>
       <c r="J14">
-        <v>2015.3037274182229</v>
+        <v>2190.149268646463</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -855,31 +851,31 @@
         <v>631</v>
       </c>
       <c r="B15">
-        <v>443.18870236817952</v>
+        <v>667.58139956741911</v>
       </c>
       <c r="C15">
-        <v>819.1272644921919</v>
+        <v>1103.655845432211</v>
       </c>
       <c r="D15">
-        <v>791.24638425876628</v>
+        <v>1072.7963016620211</v>
       </c>
       <c r="E15">
-        <v>916.74857470911832</v>
+        <v>1215.7320441714201</v>
       </c>
       <c r="F15">
-        <v>1433.8355215980289</v>
+        <v>1892.6192649763841</v>
       </c>
       <c r="G15">
-        <v>1677.195685922266</v>
+        <v>2182.55696586671</v>
       </c>
       <c r="H15">
-        <v>1044.7038253935141</v>
+        <v>1372.986780119091</v>
       </c>
       <c r="I15">
-        <v>1401.420659501812</v>
+        <v>1847.152947104802</v>
       </c>
       <c r="J15">
-        <v>1645.9001079921529</v>
+        <v>2144.9184510999371</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -887,31 +883,31 @@
         <v>648</v>
       </c>
       <c r="B16">
-        <v>526.04685714099492</v>
+        <v>773.32072539356568</v>
       </c>
       <c r="C16">
-        <v>841.73454876364553</v>
+        <v>1137.2098976178529</v>
       </c>
       <c r="D16">
-        <v>888.18010029245147</v>
+        <v>1189.3685781236491</v>
       </c>
       <c r="E16">
-        <v>945.10495035290262</v>
+        <v>1252.834581810429</v>
       </c>
       <c r="F16">
-        <v>1385.358238517367</v>
+        <v>1797.360519061948</v>
       </c>
       <c r="G16">
-        <v>1644.616467018401</v>
+        <v>2119.1902140359862</v>
       </c>
       <c r="H16">
-        <v>1077.2151547316589</v>
+        <v>1409.055074799865</v>
       </c>
       <c r="I16">
-        <v>1303.152720286419</v>
+        <v>1686.2201009230421</v>
       </c>
       <c r="J16">
-        <v>1657.36279229006</v>
+        <v>2135.4403082336548</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -919,31 +915,31 @@
         <v>714</v>
       </c>
       <c r="B17">
-        <v>663.86365527035582</v>
+        <v>698.0579518149907</v>
       </c>
       <c r="C17">
-        <v>1050.703410443331</v>
+        <v>1093.3899514975351</v>
       </c>
       <c r="D17">
-        <v>1044.9672227413889</v>
+        <v>1086.8267604120049</v>
       </c>
       <c r="E17">
-        <v>1165.7941372619439</v>
+        <v>1211.3771718850801</v>
       </c>
       <c r="F17">
-        <v>1778.116791320497</v>
+        <v>1853.2975581814101</v>
       </c>
       <c r="G17">
-        <v>2192.9025022184592</v>
+        <v>2277.519685990334</v>
       </c>
       <c r="H17">
-        <v>1259.0813115225881</v>
+        <v>1305.536399464193</v>
       </c>
       <c r="I17">
-        <v>1765.0165969115719</v>
+        <v>1840.84956995417</v>
       </c>
       <c r="J17">
-        <v>2052.254455971613</v>
+        <v>2133.144950800282</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -951,31 +947,31 @@
         <v>390</v>
       </c>
       <c r="B18">
-        <v>592.3915374006757</v>
+        <v>670.99571865107941</v>
       </c>
       <c r="C18">
-        <v>999.3641917404035</v>
+        <v>1102.2065040274531</v>
       </c>
       <c r="D18">
-        <v>1006.332989774587</v>
+        <v>1108.0549841732829</v>
       </c>
       <c r="E18">
-        <v>1106.838584688355</v>
+        <v>1216.1676930074691</v>
       </c>
       <c r="F18">
-        <v>1639.1023951138211</v>
+        <v>1796.0888531491221</v>
       </c>
       <c r="G18">
-        <v>1977.024393455629</v>
+        <v>2161.7446340787169</v>
       </c>
       <c r="H18">
-        <v>1281.694811843367</v>
+        <v>1398.804111907825</v>
       </c>
       <c r="I18">
-        <v>1638.927676324246</v>
+        <v>1798.1441831340039</v>
       </c>
       <c r="J18">
-        <v>2058.6816412885109</v>
+        <v>2247.793317871045</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -983,31 +979,31 @@
         <v>615</v>
       </c>
       <c r="B19">
-        <v>604.03197104749779</v>
+        <v>682.94026906146075</v>
       </c>
       <c r="C19">
-        <v>960.16588770637281</v>
+        <v>1058.633915664931</v>
       </c>
       <c r="D19">
-        <v>975.48445574130403</v>
+        <v>1073.254527028517</v>
       </c>
       <c r="E19">
-        <v>1103.462306611136</v>
+        <v>1210.2483981382361</v>
       </c>
       <c r="F19">
-        <v>1668.362323848236</v>
+        <v>1833.7931385740389</v>
       </c>
       <c r="G19">
-        <v>2029.941673982205</v>
+        <v>2221.2737663837038</v>
       </c>
       <c r="H19">
-        <v>1251.217713900882</v>
+        <v>1364.9489246999451</v>
       </c>
       <c r="I19">
-        <v>1663.3214775679801</v>
+        <v>1830.7189760365559</v>
       </c>
       <c r="J19">
-        <v>2034.522335738297</v>
+        <v>2224.1880844126081</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1015,31 +1011,31 @@
         <v>566</v>
       </c>
       <c r="B20">
-        <v>552.74698617442061</v>
+        <v>697.54825541456159</v>
       </c>
       <c r="C20">
-        <v>973.90440937219296</v>
+        <v>1169.884192907386</v>
       </c>
       <c r="D20">
-        <v>964.12518658087504</v>
+        <v>1158.421122836583</v>
       </c>
       <c r="E20">
-        <v>1047.25226704631</v>
+        <v>1251.4521337833451</v>
       </c>
       <c r="F20">
-        <v>1505.331367288295</v>
+        <v>1762.7683739545801</v>
       </c>
       <c r="G20">
-        <v>1736.4778003459801</v>
+        <v>2028.0696567334221</v>
       </c>
       <c r="H20">
-        <v>1302.4433213126799</v>
+        <v>1531.0366488816201</v>
       </c>
       <c r="I20">
-        <v>1482.8959919014601</v>
+        <v>1740.0443545495609</v>
       </c>
       <c r="J20">
-        <v>1858.131780353981</v>
+        <v>2160.7752609389381</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1047,31 +1043,31 @@
         <v>401</v>
       </c>
       <c r="B21">
-        <v>297.99647986996513</v>
+        <v>624.8976799063355</v>
       </c>
       <c r="C21">
-        <v>682.4327044895341</v>
+        <v>1108.57288673895</v>
       </c>
       <c r="D21">
-        <v>650.67208863352562</v>
+        <v>1072.176127196956</v>
       </c>
       <c r="E21">
-        <v>752.67731389446624</v>
+        <v>1195.782037514211</v>
       </c>
       <c r="F21">
-        <v>1177.296977243843</v>
+        <v>1803.357174907492</v>
       </c>
       <c r="G21">
-        <v>1456.2947438773269</v>
+        <v>2172.3280127667122</v>
       </c>
       <c r="H21">
-        <v>909.77681830586084</v>
+        <v>1404.55709591811</v>
       </c>
       <c r="I21">
-        <v>1253.706948564238</v>
+        <v>1903.0315372934961</v>
       </c>
       <c r="J21">
-        <v>1489.8273518780859</v>
+        <v>2215.2974477577332</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1079,31 +1075,31 @@
         <v>731</v>
       </c>
       <c r="B22">
-        <v>488.14617009391401</v>
+        <v>620.64694328947598</v>
       </c>
       <c r="C22">
-        <v>932.00459682820531</v>
+        <v>1115.6864969966639</v>
       </c>
       <c r="D22">
-        <v>904.00040693933227</v>
+        <v>1083.0345641478079</v>
       </c>
       <c r="E22">
-        <v>1032.6422994679649</v>
+        <v>1226.0197000790461</v>
       </c>
       <c r="F22">
-        <v>1569.687100020358</v>
+        <v>1864.069825675024</v>
       </c>
       <c r="G22">
-        <v>1842.4330561877939</v>
+        <v>2168.205872454972</v>
       </c>
       <c r="H22">
-        <v>1150.485851602298</v>
+        <v>1351.600301745312</v>
       </c>
       <c r="I22">
-        <v>1573.922511683915</v>
+        <v>1871.0126297596989</v>
       </c>
       <c r="J22">
-        <v>1873.857427528078</v>
+        <v>2199.7236658520028</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1111,31 +1107,31 @@
         <v>596</v>
       </c>
       <c r="B23">
-        <v>313.6631951189471</v>
+        <v>646.79714519801655</v>
       </c>
       <c r="C23">
-        <v>672.43899555349753</v>
+        <v>1093.111235626046</v>
       </c>
       <c r="D23">
-        <v>656.62879869325229</v>
+        <v>1074.8912262197</v>
       </c>
       <c r="E23">
-        <v>772.82778574504516</v>
+        <v>1214.9040549354299</v>
       </c>
       <c r="F23">
-        <v>1206.6779266195099</v>
+        <v>1846.03970167127</v>
       </c>
       <c r="G23">
-        <v>1464.7076414940029</v>
+        <v>2189.6317994463088</v>
       </c>
       <c r="H23">
-        <v>875.65877638092365</v>
+        <v>1349.334661353857</v>
       </c>
       <c r="I23">
-        <v>1217.359660442507</v>
+        <v>1853.0917009802449</v>
       </c>
       <c r="J23">
-        <v>1499.0928893515011</v>
+        <v>2232.1984745691252</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1143,31 +1139,31 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>649.10012140672484</v>
+        <v>684.42562979222078</v>
       </c>
       <c r="C24">
-        <v>1041.732851071876</v>
+        <v>1087.868031441945</v>
       </c>
       <c r="D24">
-        <v>1066.874242141115</v>
+        <v>1112.713763917541</v>
       </c>
       <c r="E24">
-        <v>1160.6653650496</v>
+        <v>1210.435071474617</v>
       </c>
       <c r="F24">
-        <v>1665.2537149322329</v>
+        <v>1730.7352519920751</v>
       </c>
       <c r="G24">
-        <v>2199.9442169759009</v>
+        <v>2284.6485411715548</v>
       </c>
       <c r="H24">
-        <v>1480.0216290059309</v>
+        <v>1537.975832419454</v>
       </c>
       <c r="I24">
-        <v>1639.4824481259641</v>
+        <v>1706.408393176657</v>
       </c>
       <c r="J24">
-        <v>2064.1950390880002</v>
+        <v>2144.789484613937</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1175,31 +1171,31 @@
         <v>745</v>
       </c>
       <c r="B25">
-        <v>446.46752011162641</v>
+        <v>669.82728699971403</v>
       </c>
       <c r="C25">
-        <v>832.03731154792695</v>
+        <v>1119.15464034658</v>
       </c>
       <c r="D25">
-        <v>842.35022863064717</v>
+        <v>1127.9283705232331</v>
       </c>
       <c r="E25">
-        <v>941.3668383266388</v>
+        <v>1244.3171497593551</v>
       </c>
       <c r="F25">
-        <v>1464.054187149907</v>
+        <v>1920.7454145313729</v>
       </c>
       <c r="G25">
-        <v>1663.053831726867</v>
+        <v>2152.1500188586729</v>
       </c>
       <c r="H25">
-        <v>1008.008178407996</v>
+        <v>1315.5307343256791</v>
       </c>
       <c r="I25">
-        <v>1376.397129625911</v>
+        <v>1813.1993553368161</v>
       </c>
       <c r="J25">
-        <v>1655.9989099828349</v>
+        <v>2137.1470293185762</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1207,31 +1203,31 @@
         <v>827</v>
       </c>
       <c r="B26">
-        <v>457.35326815247021</v>
+        <v>685.10900845611673</v>
       </c>
       <c r="C26">
-        <v>836.8508060921846</v>
+        <v>1124.470710353778</v>
       </c>
       <c r="D26">
-        <v>828.69313464061486</v>
+        <v>1113.304023854967</v>
       </c>
       <c r="E26">
-        <v>920.48214937458033</v>
+        <v>1220.6176891571099</v>
       </c>
       <c r="F26">
-        <v>1402.3358612021391</v>
+        <v>1841.395600906955</v>
       </c>
       <c r="G26">
-        <v>1697.7726701250001</v>
+        <v>2186.2225453343972</v>
       </c>
       <c r="H26">
-        <v>1041.4463213916811</v>
+        <v>1354.6034924882649</v>
       </c>
       <c r="I26">
-        <v>1490.0661018306621</v>
+        <v>1948.28632888938</v>
       </c>
       <c r="J26">
-        <v>1564.6154354115199</v>
+        <v>2025.9906005590301</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1239,31 +1235,31 @@
         <v>708</v>
       </c>
       <c r="B27">
-        <v>-37.588763960417687</v>
+        <v>576.7684176185154</v>
       </c>
       <c r="C27">
-        <v>240.67016801534959</v>
+        <v>1009.114237844068</v>
       </c>
       <c r="D27">
-        <v>315.66764627360851</v>
+        <v>1110.263490796852</v>
       </c>
       <c r="E27">
-        <v>390.18067648166277</v>
+        <v>1220.62873065702</v>
       </c>
       <c r="F27">
-        <v>776.82996160568996</v>
+        <v>1893.1237310276731</v>
       </c>
       <c r="G27">
-        <v>945.43944384564384</v>
+        <v>2140.194520551036</v>
       </c>
       <c r="H27">
-        <v>532.61826151679691</v>
+        <v>1456.2849434654911</v>
       </c>
       <c r="I27">
-        <v>771.78326209992076</v>
+        <v>1870.2861320146251</v>
       </c>
       <c r="J27">
-        <v>996.87208638554728</v>
+        <v>2223.3357960247172</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1271,31 +1267,31 @@
         <v>514</v>
       </c>
       <c r="B28">
-        <v>336.99469099375949</v>
+        <v>674.66983332399468</v>
       </c>
       <c r="C28">
-        <v>710.03741599149453</v>
+        <v>1144.847399034858</v>
       </c>
       <c r="D28">
-        <v>706.86251843715797</v>
+        <v>1138.226371462096</v>
       </c>
       <c r="E28">
-        <v>779.74534604123369</v>
+        <v>1230.6843396416</v>
       </c>
       <c r="F28">
-        <v>1269.3158844926879</v>
+        <v>1893.089168917377</v>
       </c>
       <c r="G28">
-        <v>1463.220672331825</v>
+        <v>2133.197485118892</v>
       </c>
       <c r="H28">
-        <v>918.9170451392813</v>
+        <v>1396.51485732932</v>
       </c>
       <c r="I28">
-        <v>1179.6932790976241</v>
+        <v>1775.533669580449</v>
       </c>
       <c r="J28">
-        <v>1454.4697699541209</v>
+        <v>2113.2368755914122</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1303,31 +1299,31 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>28.688394824696481</v>
+        <v>680.31590891643827</v>
       </c>
       <c r="C29">
-        <v>310.39097973959269</v>
+        <v>1080.8950988997599</v>
       </c>
       <c r="D29">
-        <v>338.22602495357108</v>
+        <v>1119.070470720304</v>
       </c>
       <c r="E29">
-        <v>384.64015899368678</v>
+        <v>1182.727746313223</v>
       </c>
       <c r="F29">
-        <v>732.69413276235468</v>
+        <v>1776.81270743659</v>
       </c>
       <c r="G29">
-        <v>966.0075133950844</v>
+        <v>2158.3853922260519</v>
       </c>
       <c r="H29">
-        <v>525.14346969365886</v>
+        <v>1395.8896218351849</v>
       </c>
       <c r="I29">
-        <v>796.97991366070744</v>
+        <v>1870.9799046166311</v>
       </c>
       <c r="J29">
-        <v>1014.511337638716</v>
+        <v>2234.9231490358202</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1335,31 +1331,31 @@
         <v>541</v>
       </c>
       <c r="B30">
-        <v>337.58120077462189</v>
+        <v>676.26545790260457</v>
       </c>
       <c r="C30">
-        <v>642.49775833763601</v>
+        <v>1043.806735753963</v>
       </c>
       <c r="D30">
-        <v>691.6623248965318</v>
+        <v>1099.5118408155281</v>
       </c>
       <c r="E30">
-        <v>744.07696563572131</v>
+        <v>1166.856303669656</v>
       </c>
       <c r="F30">
-        <v>1316.106800875531</v>
+        <v>2000.957488694824</v>
       </c>
       <c r="G30">
-        <v>1489.1915475185581</v>
+        <v>2219.6893945344</v>
       </c>
       <c r="H30">
-        <v>865.52934118099074</v>
+        <v>1311.3527362237701</v>
       </c>
       <c r="I30">
-        <v>1161.7554695304409</v>
+        <v>1781.002568259541</v>
       </c>
       <c r="J30">
-        <v>1483.492826880527</v>
+        <v>2200.5574741457108</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1367,31 +1363,31 @@
         <v>675</v>
       </c>
       <c r="B31">
-        <v>335.15265820906518</v>
+        <v>672.42319830554061</v>
       </c>
       <c r="C31">
-        <v>709.47807322933409</v>
+        <v>1138.0500185639951</v>
       </c>
       <c r="D31">
-        <v>708.62541813561074</v>
+        <v>1134.760676351721</v>
       </c>
       <c r="E31">
-        <v>777.71072634186487</v>
+        <v>1224.1272898364909</v>
       </c>
       <c r="F31">
-        <v>1277.968590108311</v>
+        <v>1910.4417844419941</v>
       </c>
       <c r="G31">
-        <v>1441.244247697939</v>
+        <v>2113.941506858579</v>
       </c>
       <c r="H31">
-        <v>907.0274097367419</v>
+        <v>1375.3396511371529</v>
       </c>
       <c r="I31">
-        <v>1191.035599904433</v>
+        <v>1796.4440292819311</v>
       </c>
       <c r="J31">
-        <v>1468.074963615642</v>
+        <v>2134.4718452225929</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1399,31 +1395,31 @@
         <v>348</v>
       </c>
       <c r="B32">
-        <v>405.32526378237878</v>
+        <v>930.42377649596949</v>
       </c>
       <c r="C32">
-        <v>577.52783530240117</v>
+        <v>1138.7549879397291</v>
       </c>
       <c r="D32">
-        <v>679.33782631394286</v>
+        <v>1261.135063292958</v>
       </c>
       <c r="E32">
-        <v>732.47594222862858</v>
+        <v>1333.941922023723</v>
       </c>
       <c r="F32">
-        <v>1112.082429511858</v>
+        <v>1852.9838381580871</v>
       </c>
       <c r="G32">
-        <v>1085.5522965750561</v>
+        <v>1823.870154990183</v>
       </c>
       <c r="H32">
-        <v>717.07345273990654</v>
+        <v>1311.5823292020509</v>
       </c>
       <c r="I32">
-        <v>1197.0914174966049</v>
+        <v>1967.572173186388</v>
       </c>
       <c r="J32">
-        <v>1140.694311387716</v>
+        <v>1879.735754710912</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1431,31 +1427,31 @@
         <v>686</v>
       </c>
       <c r="B33">
-        <v>538.14240551374951</v>
+        <v>679.91259615531794</v>
       </c>
       <c r="C33">
-        <v>857.41121021545916</v>
+        <v>1029.790127534942</v>
       </c>
       <c r="D33">
-        <v>920.59298542136878</v>
+        <v>1095.7684052492</v>
       </c>
       <c r="E33">
-        <v>1013.126500052952</v>
+        <v>1200.880262894053</v>
       </c>
       <c r="F33">
-        <v>1629.4903319325331</v>
+        <v>1932.972463179465</v>
       </c>
       <c r="G33">
-        <v>1932.987974716483</v>
+        <v>2264.2644702256798</v>
       </c>
       <c r="H33">
-        <v>1176.8546673228491</v>
+        <v>1382.025388812739</v>
       </c>
       <c r="I33">
-        <v>1619.8757989645569</v>
+        <v>1925.1301727085081</v>
       </c>
       <c r="J33">
-        <v>1683.2061403102709</v>
+        <v>1989.256113240097</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1463,31 +1459,31 @@
         <v>172</v>
       </c>
       <c r="B34">
-        <v>10.783156429823739</v>
+        <v>648.05686915530646</v>
       </c>
       <c r="C34">
-        <v>319.14146453313089</v>
+        <v>1108.731843386179</v>
       </c>
       <c r="D34">
-        <v>339.62633923058848</v>
+        <v>1136.0327616740001</v>
       </c>
       <c r="E34">
-        <v>404.27889939397971</v>
+        <v>1226.5131991613471</v>
       </c>
       <c r="F34">
-        <v>742.75229026640022</v>
+        <v>1783.6758490214349</v>
       </c>
       <c r="G34">
-        <v>939.92187550864514</v>
+        <v>2097.6734426190992</v>
       </c>
       <c r="H34">
-        <v>526.28999620407672</v>
+        <v>1410.6580801297471</v>
       </c>
       <c r="I34">
-        <v>778.09172496746567</v>
+        <v>1830.049752444693</v>
       </c>
       <c r="J34">
-        <v>1033.023604109417</v>
+        <v>2258.6082024081938</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1495,31 +1491,31 @@
         <v>259</v>
       </c>
       <c r="B35">
-        <v>174.764424624073</v>
+        <v>650.71880025466123</v>
       </c>
       <c r="C35">
-        <v>498.59736639219977</v>
+        <v>1083.783044280744</v>
       </c>
       <c r="D35">
-        <v>528.00454808143274</v>
+        <v>1116.7273597775679</v>
       </c>
       <c r="E35">
-        <v>599.94806405570921</v>
+        <v>1217.270611464367</v>
       </c>
       <c r="F35">
-        <v>990.56693000222799</v>
+        <v>1819.2083501917789</v>
       </c>
       <c r="G35">
-        <v>1257.6645831265851</v>
+        <v>2207.105676497973</v>
       </c>
       <c r="H35">
-        <v>715.31508283998789</v>
+        <v>1359.75843642932</v>
       </c>
       <c r="I35">
-        <v>1004.147798592241</v>
+        <v>1840.473951050358</v>
       </c>
       <c r="J35">
-        <v>1264.889804238871</v>
+        <v>2204.953770053226</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1527,31 +1523,31 @@
         <v>216</v>
       </c>
       <c r="B36">
-        <v>61.953452051963851</v>
+        <v>724.38706663264497</v>
       </c>
       <c r="C36">
-        <v>307.7175401563145</v>
+        <v>1082.393406404487</v>
       </c>
       <c r="D36">
-        <v>409.14801548210909</v>
+        <v>1216.107862162602</v>
       </c>
       <c r="E36">
-        <v>470.79783799384131</v>
+        <v>1309.7458002827259</v>
       </c>
       <c r="F36">
-        <v>919.51096588943733</v>
+        <v>1991.86705328837</v>
       </c>
       <c r="G36">
-        <v>953.62586944650468</v>
+        <v>2044.997082379796</v>
       </c>
       <c r="H36">
-        <v>598.33543480103367</v>
+        <v>1475.74122913934</v>
       </c>
       <c r="I36">
-        <v>681.85586581994858</v>
+        <v>1619.827884213953</v>
       </c>
       <c r="J36">
-        <v>961.96508155569245</v>
+        <v>2034.932615496082</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1559,31 +1555,31 @@
         <v>907</v>
       </c>
       <c r="B37">
-        <v>25.426190865140519</v>
+        <v>670.41549855862513</v>
       </c>
       <c r="C37">
-        <v>294.85195512043089</v>
+        <v>1040.640384033866</v>
       </c>
       <c r="D37">
-        <v>338.06502943273262</v>
+        <v>1096.7343469331061</v>
       </c>
       <c r="E37">
-        <v>383.67239151570323</v>
+        <v>1164.610174714147</v>
       </c>
       <c r="F37">
-        <v>849.63649080453729</v>
+        <v>2005.899450761787</v>
       </c>
       <c r="G37">
-        <v>994.44176875821995</v>
+        <v>2226.2244986428532</v>
       </c>
       <c r="H37">
-        <v>492.18141323257828</v>
+        <v>1310.7475893078731</v>
       </c>
       <c r="I37">
-        <v>725.69886782093499</v>
+        <v>1778.784484724647</v>
       </c>
       <c r="J37">
-        <v>994.95313526832581</v>
+        <v>2205.943572323099</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1591,31 +1587,31 @@
         <v>804</v>
       </c>
       <c r="B38">
-        <v>-441.03514028271269</v>
+        <v>611.64335224739875</v>
       </c>
       <c r="C38">
-        <v>-196.23341917691121</v>
+        <v>1038.8081142661481</v>
       </c>
       <c r="D38">
-        <v>-180.31716380754469</v>
+        <v>1062.0575027511361</v>
       </c>
       <c r="E38">
-        <v>-88.496206418073754</v>
+        <v>1209.9336368913371</v>
       </c>
       <c r="F38">
-        <v>152.49778447521271</v>
+        <v>1719.156932803061</v>
       </c>
       <c r="G38">
-        <v>434.0125514506426</v>
+        <v>2366.796005341484</v>
       </c>
       <c r="H38">
-        <v>3.1046207795803711</v>
+        <v>1384.0320280653871</v>
       </c>
       <c r="I38">
-        <v>215.12863033062939</v>
+        <v>1839.1138776732621</v>
       </c>
       <c r="J38">
-        <v>387.38132461360919</v>
+        <v>2268.4585499607851</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1623,31 +1619,31 @@
         <v>826</v>
       </c>
       <c r="B39">
-        <v>-98.366335072272221</v>
+        <v>773.29205753722022</v>
       </c>
       <c r="C39">
-        <v>99.281490599310544</v>
+        <v>1071.0691705503459</v>
       </c>
       <c r="D39">
-        <v>184.7997081457234</v>
+        <v>1195.6670987622031</v>
       </c>
       <c r="E39">
-        <v>247.3805280405779</v>
+        <v>1283.5067108717731</v>
       </c>
       <c r="F39">
-        <v>551.70419348246401</v>
+        <v>1804.8163048063279</v>
       </c>
       <c r="G39">
-        <v>744.02353600259698</v>
+        <v>2111.697506464734</v>
       </c>
       <c r="H39">
-        <v>369.95765553602348</v>
+        <v>1484.5427007874321</v>
       </c>
       <c r="I39">
-        <v>528.75969079590175</v>
+        <v>1754.7947764639059</v>
       </c>
       <c r="J39">
-        <v>677.8498889747857</v>
+        <v>2020.6136737560571</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1655,31 +1651,31 @@
         <v>246</v>
       </c>
       <c r="B40">
-        <v>-380.86506229181481</v>
+        <v>664.21090180232181</v>
       </c>
       <c r="C40">
-        <v>-125.7156794887224</v>
+        <v>1129.829443191473</v>
       </c>
       <c r="D40">
-        <v>-91.863576564928991</v>
+        <v>1185.1751258428189</v>
       </c>
       <c r="E40">
-        <v>-14.19172741668406</v>
+        <v>1300.8550647749239</v>
       </c>
       <c r="F40">
-        <v>310.29434720183161</v>
+        <v>1890.393127102252</v>
       </c>
       <c r="G40">
-        <v>410.99337078842137</v>
+        <v>2082.3188597320232</v>
       </c>
       <c r="H40">
-        <v>123.99267499170421</v>
+        <v>1539.40558696416</v>
       </c>
       <c r="I40">
-        <v>149.8545120800712</v>
+        <v>1571.400961328249</v>
       </c>
       <c r="J40">
-        <v>432.71597917452328</v>
+        <v>2136.4109292617818</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1687,31 +1683,31 @@
         <v>261</v>
       </c>
       <c r="B41">
-        <v>-412.83366569768162</v>
+        <v>643.58030218288047</v>
       </c>
       <c r="C41">
-        <v>-141.0989744386325</v>
+        <v>1104.5406891818579</v>
       </c>
       <c r="D41">
-        <v>-157.37913028476569</v>
+        <v>1079.0105993659281</v>
       </c>
       <c r="E41">
-        <v>-68.813929105941014</v>
+        <v>1222.5248148376249</v>
       </c>
       <c r="F41">
-        <v>225.40610189063031</v>
+        <v>1837.8526906236771</v>
       </c>
       <c r="G41">
-        <v>393.30954134872059</v>
+        <v>2168.0688270125952</v>
       </c>
       <c r="H41">
-        <v>6.31265150277342</v>
+        <v>1356.920631418951</v>
       </c>
       <c r="I41">
-        <v>246.3676588214567</v>
+        <v>1873.02799634597</v>
       </c>
       <c r="J41">
-        <v>411.24118951308031</v>
+        <v>2214.4734490305141</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1719,31 +1715,31 @@
         <v>264</v>
       </c>
       <c r="B42">
-        <v>200.0038957793451</v>
+        <v>674.4385399976029</v>
       </c>
       <c r="C42">
-        <v>530.289791189227</v>
+        <v>1108.9954964494559</v>
       </c>
       <c r="D42">
-        <v>531.88590545239174</v>
+        <v>1109.7026131490461</v>
       </c>
       <c r="E42">
-        <v>598.01883347641137</v>
+        <v>1200.457451224554</v>
       </c>
       <c r="F42">
-        <v>1055.3324037274999</v>
+        <v>1902.801736994204</v>
       </c>
       <c r="G42">
-        <v>1252.807015242802</v>
+        <v>2169.4853413307719</v>
       </c>
       <c r="H42">
-        <v>735.64924943910842</v>
+        <v>1376.8176862554551</v>
       </c>
       <c r="I42">
-        <v>1070.672536768704</v>
+        <v>1926.152491825083</v>
       </c>
       <c r="J42">
-        <v>1158.5595190665811</v>
+        <v>2031.14864277383</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1751,31 +1747,31 @@
         <v>886</v>
       </c>
       <c r="B43">
-        <v>27.22725032273117</v>
+        <v>680.61411617447607</v>
       </c>
       <c r="C43">
-        <v>334.38798247235411</v>
+        <v>1123.656780809519</v>
       </c>
       <c r="D43">
-        <v>321.51322736357378</v>
+        <v>1103.6139445396909</v>
       </c>
       <c r="E43">
-        <v>406.77205698595742</v>
+        <v>1226.063280953598</v>
       </c>
       <c r="F43">
-        <v>751.93803319259507</v>
+        <v>1785.4010289942869</v>
       </c>
       <c r="G43">
-        <v>1020.883594694135</v>
+        <v>2211.684980920887</v>
       </c>
       <c r="H43">
-        <v>536.38360903321416</v>
+        <v>1400.221445589616</v>
       </c>
       <c r="I43">
-        <v>783.82583286048396</v>
+        <v>1843.521799183691</v>
       </c>
       <c r="J43">
-        <v>973.86024089451439</v>
+        <v>2125.2226228342338</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1783,31 +1779,31 @@
         <v>569</v>
       </c>
       <c r="B44">
-        <v>-133.5920566796579</v>
+        <v>723.61588980512829</v>
       </c>
       <c r="C44">
-        <v>104.108311059386</v>
+        <v>1089.7656217124879</v>
       </c>
       <c r="D44">
-        <v>199.64192642526351</v>
+        <v>1221.482482958751</v>
       </c>
       <c r="E44">
-        <v>239.3866419360217</v>
+        <v>1294.320392779169</v>
       </c>
       <c r="F44">
-        <v>558.01784929332484</v>
+        <v>1838.1716651718621</v>
       </c>
       <c r="G44">
-        <v>715.27563761188514</v>
+        <v>2132.1571826726599</v>
       </c>
       <c r="H44">
-        <v>305.45661572452008</v>
+        <v>1373.971879566066</v>
       </c>
       <c r="I44">
-        <v>446.07409819556688</v>
+        <v>1620.952770884455</v>
       </c>
       <c r="J44">
-        <v>771.24257908338325</v>
+        <v>2205.5621144494221</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1815,31 +1811,31 @@
         <v>897</v>
       </c>
       <c r="B45">
-        <v>-1528.537347087404</v>
+        <v>672.5709508020044</v>
       </c>
       <c r="C45">
-        <v>-1322.6682623823949</v>
+        <v>1148.125976077994</v>
       </c>
       <c r="D45">
-        <v>-1330.861738640544</v>
+        <v>1127.069395020322</v>
       </c>
       <c r="E45">
-        <v>-1273.1110472759819</v>
+        <v>1250.3331798931119</v>
       </c>
       <c r="F45">
-        <v>-1030.1853037771591</v>
+        <v>1925.4695758839939</v>
       </c>
       <c r="G45">
-        <v>-943.1014987936685</v>
+        <v>2152.2729827506541</v>
       </c>
       <c r="H45">
-        <v>-1229.491865100284</v>
+        <v>1351.0896148416959</v>
       </c>
       <c r="I45">
-        <v>-1051.391067242756</v>
+        <v>1861.436168484591</v>
       </c>
       <c r="J45">
-        <v>-1014.235838586139</v>
+        <v>2011.6321562456289</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1847,31 +1843,31 @@
         <v>837</v>
       </c>
       <c r="B46">
-        <v>-694.99074598132211</v>
+        <v>607.9809657822243</v>
       </c>
       <c r="C46">
-        <v>-469.10272510296778</v>
+        <v>1037.276465891322</v>
       </c>
       <c r="D46">
-        <v>-456.76867780792941</v>
+        <v>1056.5964943335771</v>
       </c>
       <c r="E46">
-        <v>-367.99268881086869</v>
+        <v>1210.216713339677</v>
       </c>
       <c r="F46">
-        <v>-144.6110986999702</v>
+        <v>1727.2156591832711</v>
       </c>
       <c r="G46">
-        <v>104.8349340776407</v>
+        <v>2355.920082814725</v>
       </c>
       <c r="H46">
-        <v>-284.61462887866099</v>
+        <v>1383.608467133912</v>
       </c>
       <c r="I46">
-        <v>-87.5809455393928</v>
+        <v>1853.3165805796839</v>
       </c>
       <c r="J46">
-        <v>61.006931614133308</v>
+        <v>2267.8685709416091</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1879,31 +1875,31 @@
         <v>391</v>
       </c>
       <c r="B47">
-        <v>-400.92342777383982</v>
+        <v>660.25471206255077</v>
       </c>
       <c r="C47">
-        <v>-126.73467884799869</v>
+        <v>1121.9782968035761</v>
       </c>
       <c r="D47">
-        <v>-148.21864520015129</v>
+        <v>1084.185379799701</v>
       </c>
       <c r="E47">
-        <v>-78.12914615727604</v>
+        <v>1201.3388637628921</v>
       </c>
       <c r="F47">
-        <v>244.72776409759729</v>
+        <v>1871.204802668773</v>
       </c>
       <c r="G47">
-        <v>398.01313658269379</v>
+        <v>2171.5771188502649</v>
       </c>
       <c r="H47">
-        <v>3.675159481914875</v>
+        <v>1339.091240987834</v>
       </c>
       <c r="I47">
-        <v>217.7052706221518</v>
+        <v>1796.6115191515721</v>
       </c>
       <c r="J47">
-        <v>434.21600080953101</v>
+        <v>2253.7580659128348</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1911,31 +1907,31 @@
         <v>872</v>
       </c>
       <c r="B48">
-        <v>-379.58143039604818</v>
+        <v>684.33620862015721</v>
       </c>
       <c r="C48">
-        <v>-130.87345914641261</v>
+        <v>1111.112684457011</v>
       </c>
       <c r="D48">
-        <v>-113.5901295956803</v>
+        <v>1139.381296219859</v>
       </c>
       <c r="E48">
-        <v>-47.189328870998189</v>
+        <v>1249.1003726083241</v>
       </c>
       <c r="F48">
-        <v>305.95112550159678</v>
+        <v>1903.860497144723</v>
       </c>
       <c r="G48">
-        <v>444.83445747718639</v>
+        <v>2144.6237168670741</v>
       </c>
       <c r="H48">
-        <v>107.99958090015311</v>
+        <v>1532.484159426908</v>
       </c>
       <c r="I48">
-        <v>231.28999494739011</v>
+        <v>1758.052841027966</v>
       </c>
       <c r="J48">
-        <v>343.42013950161771</v>
+        <v>1977.0482236279811</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1943,31 +1939,31 @@
         <v>156</v>
       </c>
       <c r="B49">
-        <v>-221.33121462770589</v>
+        <v>593.22835483262975</v>
       </c>
       <c r="C49">
-        <v>90.494488681891568</v>
+        <v>1099.2044717764929</v>
       </c>
       <c r="D49">
-        <v>95.956323349809594</v>
+        <v>1106.154339177119</v>
       </c>
       <c r="E49">
-        <v>152.4258955876239</v>
+        <v>1200.3559072115911</v>
       </c>
       <c r="F49">
-        <v>483.4662449035186</v>
+        <v>1797.184852533107</v>
       </c>
       <c r="G49">
-        <v>699.46880952150093</v>
+        <v>2172.3200921208359</v>
       </c>
       <c r="H49">
-        <v>316.30600768763583</v>
+        <v>1451.798392568905</v>
       </c>
       <c r="I49">
-        <v>537.91426917527428</v>
+        <v>1890.5142530780979</v>
       </c>
       <c r="J49">
-        <v>723.69436218832868</v>
+        <v>2189.2393367012201</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1975,31 +1971,31 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>-450.35824069414639</v>
+        <v>598.44401680096178</v>
       </c>
       <c r="C50">
-        <v>-214.09905690136779</v>
+        <v>1011.096690524765</v>
       </c>
       <c r="D50">
-        <v>-168.23791304361731</v>
+        <v>1079.8055122330711</v>
       </c>
       <c r="E50">
-        <v>-83.419448413447839</v>
+        <v>1234.0492214002311</v>
       </c>
       <c r="F50">
-        <v>202.14530505749869</v>
+        <v>1840.516633221484</v>
       </c>
       <c r="G50">
-        <v>372.6717520613422</v>
+        <v>2205.505358655791</v>
       </c>
       <c r="H50">
-        <v>-0.67540030560507491</v>
+        <v>1362.368553604183</v>
       </c>
       <c r="I50">
-        <v>215.40726001562129</v>
+        <v>1868.7238804521619</v>
       </c>
       <c r="J50">
-        <v>439.78075133046258</v>
+        <v>2299.4901331073502</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2007,31 +2003,31 @@
         <v>252</v>
       </c>
       <c r="B51">
-        <v>-1220.110735337832</v>
+        <v>659.95647491281807</v>
       </c>
       <c r="C51">
-        <v>-1013.528466636483</v>
+        <v>1096.8588323243409</v>
       </c>
       <c r="D51">
-        <v>-1013.513280827935</v>
+        <v>1099.2840526936809</v>
       </c>
       <c r="E51">
-        <v>-956.19556320265633</v>
+        <v>1211.744007672982</v>
       </c>
       <c r="F51">
-        <v>-690.08427695266948</v>
+        <v>1925.130844258586</v>
       </c>
       <c r="G51">
-        <v>-588.00572296050655</v>
+        <v>2167.9541010189459</v>
       </c>
       <c r="H51">
-        <v>-873.77177174976418</v>
+        <v>1400.850775053972</v>
       </c>
       <c r="I51">
-        <v>-700.93920523234374</v>
+        <v>1881.0079995556689</v>
       </c>
       <c r="J51">
-        <v>-642.56323805598254</v>
+        <v>2057.212912509005</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2039,31 +2035,31 @@
         <v>749</v>
       </c>
       <c r="B52">
-        <v>-176.54629124681961</v>
+        <v>659.49059783881296</v>
       </c>
       <c r="C52">
-        <v>117.2468734743932</v>
+        <v>1097.170313680401</v>
       </c>
       <c r="D52">
-        <v>127.5339757401091</v>
+        <v>1114.603920060501</v>
       </c>
       <c r="E52">
-        <v>179.9873267464061</v>
+        <v>1197.1050602302771</v>
       </c>
       <c r="F52">
-        <v>539.99606517756206</v>
+        <v>1908.1879199815</v>
       </c>
       <c r="G52">
-        <v>717.39342409613232</v>
+        <v>2224.8455455081321</v>
       </c>
       <c r="H52">
-        <v>228.84664562557299</v>
+        <v>1262.409693223874</v>
       </c>
       <c r="I52">
-        <v>496.57757450913198</v>
+        <v>1819.9610236794499</v>
       </c>
       <c r="J52">
-        <v>731.21433987329715</v>
+        <v>2216.2259257970541</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2071,31 +2067,31 @@
         <v>195</v>
       </c>
       <c r="B53">
-        <v>-354.25575960018949</v>
+        <v>725.03029846659661</v>
       </c>
       <c r="C53">
-        <v>-110.9313360684498</v>
+        <v>1132.6667806568651</v>
       </c>
       <c r="D53">
-        <v>-70.574414556128616</v>
+        <v>1195.44059127641</v>
       </c>
       <c r="E53">
-        <v>-26.55053301007344</v>
+        <v>1272.4050232389441</v>
       </c>
       <c r="F53">
-        <v>262.74612044131862</v>
+        <v>1765.2409378608979</v>
       </c>
       <c r="G53">
-        <v>431.83938497831861</v>
+        <v>2094.8387269668879</v>
       </c>
       <c r="H53">
-        <v>109.037553868918</v>
+        <v>1473.968495995686</v>
       </c>
       <c r="I53">
-        <v>239.2758022579082</v>
+        <v>1732.7498316196511</v>
       </c>
       <c r="J53">
-        <v>452.56376947337583</v>
+        <v>2107.6593139180632</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2103,31 +2099,31 @@
         <v>257</v>
       </c>
       <c r="B54">
-        <v>768.82739850110852</v>
+        <v>806.14426024689635</v>
       </c>
       <c r="C54">
-        <v>977.12857974021881</v>
+        <v>1018.201304791053</v>
       </c>
       <c r="D54">
-        <v>1158.7359534863549</v>
+        <v>1204.7886908360731</v>
       </c>
       <c r="E54">
-        <v>1221.567717552877</v>
+        <v>1267.4590504831219</v>
       </c>
       <c r="F54">
-        <v>1884.2360651506981</v>
+        <v>1959.9606577644311</v>
       </c>
       <c r="G54">
-        <v>2180.2785795038171</v>
+        <v>2269.9970923134451</v>
       </c>
       <c r="H54">
-        <v>1288.146205905748</v>
+        <v>1337.2623044355209</v>
       </c>
       <c r="I54">
-        <v>1705.6777989502721</v>
+        <v>1773.9031696923171</v>
       </c>
       <c r="J54">
-        <v>1789.1702219150709</v>
+        <v>1862.283469437142</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2135,31 +2131,31 @@
         <v>238</v>
       </c>
       <c r="B55">
-        <v>17.328390982337911</v>
+        <v>676.82231783068664</v>
       </c>
       <c r="C55">
-        <v>305.24451397958057</v>
+        <v>1090.991673478339</v>
       </c>
       <c r="D55">
-        <v>322.20926453122649</v>
+        <v>1112.79960808244</v>
       </c>
       <c r="E55">
-        <v>388.15408138988897</v>
+        <v>1211.831799733593</v>
       </c>
       <c r="F55">
-        <v>729.46787982235958</v>
+        <v>1739.6714003746929</v>
       </c>
       <c r="G55">
-        <v>1040.77404263671</v>
+        <v>2265.1842401382651</v>
       </c>
       <c r="H55">
-        <v>616.82779596712589</v>
+        <v>1543.954426239196</v>
       </c>
       <c r="I55">
-        <v>711.00968325999577</v>
+        <v>1715.6891592556931</v>
       </c>
       <c r="J55">
-        <v>979.61078914771554</v>
+        <v>2143.0553748670959</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2167,31 +2163,31 @@
         <v>654</v>
       </c>
       <c r="B56">
-        <v>-189.71361431302651</v>
+        <v>657.2601832318021</v>
       </c>
       <c r="C56">
-        <v>65.837419059674417</v>
+        <v>1042.9201470304929</v>
       </c>
       <c r="D56">
-        <v>77.684605251752927</v>
+        <v>1058.3286467614359</v>
       </c>
       <c r="E56">
-        <v>164.88561586491619</v>
+        <v>1197.9742888027861</v>
       </c>
       <c r="F56">
-        <v>496.33310776645197</v>
+        <v>1842.891238663241</v>
       </c>
       <c r="G56">
-        <v>713.29844186296975</v>
+        <v>2248.8491439959389</v>
       </c>
       <c r="H56">
-        <v>268.98355465050719</v>
+        <v>1352.1699455358171</v>
       </c>
       <c r="I56">
-        <v>501.57307360906628</v>
+        <v>1852.392854502825</v>
       </c>
       <c r="J56">
-        <v>730.61068474357376</v>
+        <v>2247.2135514756669</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2199,31 +2195,31 @@
         <v>658</v>
       </c>
       <c r="B57">
-        <v>-617.70652419432326</v>
+        <v>697.0432539076163</v>
       </c>
       <c r="C57">
-        <v>-386.00140989262508</v>
+        <v>1115.115933305382</v>
       </c>
       <c r="D57">
-        <v>-373.48307285902939</v>
+        <v>1137.602214535038</v>
       </c>
       <c r="E57">
-        <v>-282.03117374569729</v>
+        <v>1299.64127735894</v>
       </c>
       <c r="F57">
-        <v>-31.71865627111637</v>
+        <v>1819.0839053938939</v>
       </c>
       <c r="G57">
-        <v>79.983420897352943</v>
+        <v>2048.975030775407</v>
       </c>
       <c r="H57">
-        <v>-220.66768584260981</v>
+        <v>1394.5601588782431</v>
       </c>
       <c r="I57">
-        <v>-28.930614747357041</v>
+        <v>1819.473829172684</v>
       </c>
       <c r="J57">
-        <v>155.76534663832959</v>
+        <v>2168.5043966727958</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2231,31 +2227,31 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>-898.67816878520171</v>
+        <v>679.45230740995044</v>
       </c>
       <c r="C58">
-        <v>-690.36948348982003</v>
+        <v>1118.2048448193871</v>
       </c>
       <c r="D58">
-        <v>-667.00764229730589</v>
+        <v>1155.0869708858561</v>
       </c>
       <c r="E58">
-        <v>-596.86679533629501</v>
+        <v>1287.1395419536909</v>
       </c>
       <c r="F58">
-        <v>-360.77078430206092</v>
+        <v>1793.783088377226</v>
       </c>
       <c r="G58">
-        <v>-197.362082076029</v>
+        <v>2154.179282004744</v>
       </c>
       <c r="H58">
-        <v>-498.73758845433707</v>
+        <v>1488.90190507487</v>
       </c>
       <c r="I58">
-        <v>-358.32991870648033</v>
+        <v>1790.333702586817</v>
       </c>
       <c r="J58">
-        <v>-258.24632207055481</v>
+        <v>2032.9183568874589</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2263,31 +2259,31 @@
         <v>284</v>
       </c>
       <c r="B59">
-        <v>-943.43049542516223</v>
+        <v>650.01068038019753</v>
       </c>
       <c r="C59">
-        <v>-740.17743601592349</v>
+        <v>1053.6996849093759</v>
       </c>
       <c r="D59">
-        <v>-745.13651548589257</v>
+        <v>1034.5017687781301</v>
       </c>
       <c r="E59">
-        <v>-672.41279338068659</v>
+        <v>1177.081934537242</v>
       </c>
       <c r="F59">
-        <v>-374.27770625371079</v>
+        <v>1943.6806944217931</v>
       </c>
       <c r="G59">
-        <v>-250.67055494009981</v>
+        <v>2235.1710112335882</v>
       </c>
       <c r="H59">
-        <v>-560.05191015335663</v>
+        <v>1439.2193266508471</v>
       </c>
       <c r="I59">
-        <v>-414.70377017883948</v>
+        <v>1823.2754050260951</v>
       </c>
       <c r="J59">
-        <v>-304.88534629527032</v>
+        <v>2143.3594940627331</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2295,31 +2291,31 @@
         <v>151</v>
       </c>
       <c r="B60">
-        <v>-618.60913241242247</v>
+        <v>700.22379843314468</v>
       </c>
       <c r="C60">
-        <v>-377.70018758114622</v>
+        <v>1120.750626161001</v>
       </c>
       <c r="D60">
-        <v>-375.99699101166442</v>
+        <v>1126.8744824405489</v>
       </c>
       <c r="E60">
-        <v>-321.01807887900588</v>
+        <v>1230.6472911660021</v>
       </c>
       <c r="F60">
-        <v>-47.687305787646963</v>
+        <v>1802.571310530122</v>
       </c>
       <c r="G60">
-        <v>90.495312417950046</v>
+        <v>2093.399042506524</v>
       </c>
       <c r="H60">
-        <v>-210.88273448748549</v>
+        <v>1411.977521460148</v>
       </c>
       <c r="I60">
-        <v>15.780652693838039</v>
+        <v>1933.8828859229591</v>
       </c>
       <c r="J60">
-        <v>106.2822510045555</v>
+        <v>2079.673041379549</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2327,31 +2323,31 @@
         <v>314</v>
       </c>
       <c r="B61">
-        <v>-653.05520693304152</v>
+        <v>648.69824081384604</v>
       </c>
       <c r="C61">
-        <v>-401.76275383482039</v>
+        <v>1100.194154193611</v>
       </c>
       <c r="D61">
-        <v>-404.1747830761928</v>
+        <v>1099.44087471443</v>
       </c>
       <c r="E61">
-        <v>-342.70909505396389</v>
+        <v>1214.7392195504949</v>
       </c>
       <c r="F61">
-        <v>-56.667895147090903</v>
+        <v>1847.1116206435649</v>
       </c>
       <c r="G61">
-        <v>80.951541394192873</v>
+        <v>2127.5382775957751</v>
       </c>
       <c r="H61">
-        <v>-225.37734739570769</v>
+        <v>1415.962317948746</v>
       </c>
       <c r="I61">
-        <v>-2.493374774973232</v>
+        <v>1957.803291358784</v>
       </c>
       <c r="J61">
-        <v>81.714913556571759</v>
+        <v>2088.5120031807478</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2359,31 +2355,31 @@
         <v>611</v>
       </c>
       <c r="B62">
-        <v>-645.85485023823207</v>
+        <v>671.93527227724201</v>
       </c>
       <c r="C62">
-        <v>-395.64850973487768</v>
+        <v>1124.876307065852</v>
       </c>
       <c r="D62">
-        <v>-409.98661922142281</v>
+        <v>1101.467080735116</v>
       </c>
       <c r="E62">
-        <v>-340.88727501459789</v>
+        <v>1225.3394696890739</v>
       </c>
       <c r="F62">
-        <v>-71.431954992325331</v>
+        <v>1790.5251549982099</v>
       </c>
       <c r="G62">
-        <v>109.2215359313653</v>
+        <v>2206.551039603029</v>
       </c>
       <c r="H62">
-        <v>-230.16883049225439</v>
+        <v>1405.462761395816</v>
       </c>
       <c r="I62">
-        <v>-50.106152894291633</v>
+        <v>1844.49650827186</v>
       </c>
       <c r="J62">
-        <v>95.281642928599339</v>
+        <v>2129.3464059637981</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2391,31 +2387,31 @@
         <v>770</v>
       </c>
       <c r="B63">
-        <v>-398.76023538378661</v>
+        <v>651.48360454304589</v>
       </c>
       <c r="C63">
-        <v>-156.43334349738689</v>
+        <v>1060.6972658429511</v>
       </c>
       <c r="D63">
-        <v>-115.79551331517681</v>
+        <v>1122.6678957687161</v>
       </c>
       <c r="E63">
-        <v>-64.401730355420767</v>
+        <v>1214.4532296368329</v>
       </c>
       <c r="F63">
-        <v>265.54811507640261</v>
+        <v>1880.7672984025251</v>
       </c>
       <c r="G63">
-        <v>389.96964612790413</v>
+        <v>2099.580479610041</v>
       </c>
       <c r="H63">
-        <v>77.892949483394688</v>
+        <v>1450.9650708439569</v>
       </c>
       <c r="I63">
-        <v>308.22127883792751</v>
+        <v>1954.8638822646119</v>
       </c>
       <c r="J63">
-        <v>386.99590224683379</v>
+        <v>2064.5212730873191</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2423,31 +2419,31 @@
         <v>328</v>
       </c>
       <c r="B64">
-        <v>-623.61918353372334</v>
+        <v>681.57089072310225</v>
       </c>
       <c r="C64">
-        <v>-385.69599919919511</v>
+        <v>1120.2326370745659</v>
       </c>
       <c r="D64">
-        <v>-369.08401516290422</v>
+        <v>1145.841407182091</v>
       </c>
       <c r="E64">
-        <v>-305.20669640654501</v>
+        <v>1267.161769302488</v>
       </c>
       <c r="F64">
-        <v>-57.049288393073176</v>
+        <v>1763.2081452076429</v>
       </c>
       <c r="G64">
-        <v>69.768896181492522</v>
+        <v>2025.291804571337</v>
       </c>
       <c r="H64">
-        <v>-192.24672702054599</v>
+        <v>1453.691316850159</v>
       </c>
       <c r="I64">
-        <v>44.296844061438968</v>
+        <v>1962.798298960518</v>
       </c>
       <c r="J64">
-        <v>120.8321355461409</v>
+        <v>2080.2037301280911</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2455,31 +2451,31 @@
         <v>823</v>
       </c>
       <c r="B65">
-        <v>-908.40274237898552</v>
+        <v>662.81745446798288</v>
       </c>
       <c r="C65">
-        <v>-665.38000630753936</v>
+        <v>1144.298752437094</v>
       </c>
       <c r="D65">
-        <v>-683.04711844130247</v>
+        <v>1118.278901708235</v>
       </c>
       <c r="E65">
-        <v>-623.9714532896985</v>
+        <v>1237.914026065911</v>
       </c>
       <c r="F65">
-        <v>-372.0559382893174</v>
+        <v>1813.2395402731361</v>
       </c>
       <c r="G65">
-        <v>-300.93431070459559</v>
+        <v>1983.768639148517</v>
       </c>
       <c r="H65">
-        <v>-520.10883432229366</v>
+        <v>1410.9994835378241</v>
       </c>
       <c r="I65">
-        <v>-270.23801141310781</v>
+        <v>2033.9368601823089</v>
       </c>
       <c r="J65">
-        <v>-228.55146952752449</v>
+        <v>2094.7463421789889</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2487,31 +2483,31 @@
         <v>6</v>
       </c>
       <c r="B66">
-        <v>-249.79024064201701</v>
+        <v>1289.7177735160999</v>
       </c>
       <c r="C66">
-        <v>-86.647658487312242</v>
+        <v>1522.7677922861569</v>
       </c>
       <c r="D66">
-        <v>-44.002377866189917</v>
+        <v>1571.3667615011229</v>
       </c>
       <c r="E66">
-        <v>-293.46297829698932</v>
+        <v>1226.550430309002</v>
       </c>
       <c r="F66">
-        <v>-137.1803366180886</v>
+        <v>1433.608852996219</v>
       </c>
       <c r="G66">
-        <v>-74.930727659333428</v>
+        <v>1530.0375806570589</v>
       </c>
       <c r="H66">
-        <v>-101.0357384220145</v>
+        <v>1493.894417032014</v>
       </c>
       <c r="I66">
-        <v>16.30816973334321</v>
+        <v>1675.469946600597</v>
       </c>
       <c r="J66">
-        <v>55.758977862086041</v>
+        <v>1756.5864451017289</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2519,31 +2515,31 @@
         <v>666</v>
       </c>
       <c r="B67">
-        <v>-1150.3409703441801</v>
+        <v>758.35580140724915</v>
       </c>
       <c r="C67">
-        <v>-1002.199530524786</v>
+        <v>1061.762417536662</v>
       </c>
       <c r="D67">
-        <v>-934.57133598396535</v>
+        <v>1189.50861168591</v>
       </c>
       <c r="E67">
-        <v>-886.1953886967716</v>
+        <v>1278.559257604086</v>
       </c>
       <c r="F67">
-        <v>-667.34147467009802</v>
+        <v>1810.5605334585659</v>
       </c>
       <c r="G67">
-        <v>-533.78925423529358</v>
+        <v>2123.1209779991609</v>
       </c>
       <c r="H67">
-        <v>-795.17389556703495</v>
+        <v>1483.4511946945991</v>
       </c>
       <c r="I67">
-        <v>-679.7412382218788</v>
+        <v>1762.204454676976</v>
       </c>
       <c r="J67">
-        <v>-591.92047241766068</v>
+        <v>2032.47675093679</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2551,31 +2547,31 @@
         <v>967</v>
       </c>
       <c r="B68">
-        <v>-647.67434943341061</v>
+        <v>652.8901237145385</v>
       </c>
       <c r="C68">
-        <v>-386.67329395638768</v>
+        <v>1131.145637731508</v>
       </c>
       <c r="D68">
-        <v>-390.36946307198741</v>
+        <v>1123.9138895223871</v>
       </c>
       <c r="E68">
-        <v>-339.78898384278398</v>
+        <v>1219.0246014951611</v>
       </c>
       <c r="F68">
-        <v>-23.564693385202482</v>
+        <v>1905.8388806627661</v>
       </c>
       <c r="G68">
-        <v>96.944131554288731</v>
+        <v>2152.8302794713331</v>
       </c>
       <c r="H68">
-        <v>-236.6547442475605</v>
+        <v>1386.200512456305</v>
       </c>
       <c r="I68">
-        <v>-68.77079535812932</v>
+        <v>1794.4929568980269</v>
       </c>
       <c r="J68">
-        <v>109.1555490874191</v>
+        <v>2133.6631180479749</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2583,31 +2579,31 @@
         <v>485</v>
       </c>
       <c r="B69">
-        <v>-932.73208995425011</v>
+        <v>655.50172388949034</v>
       </c>
       <c r="C69">
-        <v>-706.54975017014033</v>
+        <v>1110.7236494530671</v>
       </c>
       <c r="D69">
-        <v>-696.16087877606799</v>
+        <v>1131.3119906964371</v>
       </c>
       <c r="E69">
-        <v>-632.62139589125366</v>
+        <v>1255.422444697698</v>
       </c>
       <c r="F69">
-        <v>-405.7355547303406</v>
+        <v>1740.651652366497</v>
       </c>
       <c r="G69">
-        <v>-225.67225539900809</v>
+        <v>2224.95044036221</v>
       </c>
       <c r="H69">
-        <v>-504.41082255460333</v>
+        <v>1493.3573889487229</v>
       </c>
       <c r="I69">
-        <v>-410.23032422830818</v>
+        <v>1736.8286578926991</v>
       </c>
       <c r="J69">
-        <v>-231.11258127381791</v>
+        <v>2151.2520516931809</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2615,31 +2611,31 @@
         <v>54</v>
       </c>
       <c r="B70">
-        <v>-1243.2506128525349</v>
+        <v>653.52835633787049</v>
       </c>
       <c r="C70">
-        <v>-1044.9119215346579</v>
+        <v>1076.9023651469829</v>
       </c>
       <c r="D70">
-        <v>-1043.529717348089</v>
+        <v>1068.0013425290031</v>
       </c>
       <c r="E70">
-        <v>-988.29213529233766</v>
+        <v>1184.4556361307809</v>
       </c>
       <c r="F70">
-        <v>-763.35728385131938</v>
+        <v>1806.5135056242341</v>
       </c>
       <c r="G70">
-        <v>-617.85812146143348</v>
+        <v>2205.2912410965341</v>
       </c>
       <c r="H70">
-        <v>-908.486821200701</v>
+        <v>1366.604728591198</v>
       </c>
       <c r="I70">
-        <v>-733.12721516241049</v>
+        <v>1881.9081197953919</v>
       </c>
       <c r="J70">
-        <v>-618.91495382500125</v>
+        <v>2256.7947047480038</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2647,31 +2643,31 @@
         <v>155</v>
       </c>
       <c r="B71">
-        <v>-874.340424190774</v>
+        <v>709.66305594447942</v>
       </c>
       <c r="C71">
-        <v>-661.34262490784477</v>
+        <v>1124.357929462235</v>
       </c>
       <c r="D71">
-        <v>-622.57011560788931</v>
+        <v>1191.198812233315</v>
       </c>
       <c r="E71">
-        <v>-597.11929322398169</v>
+        <v>1255.711262759834</v>
       </c>
       <c r="F71">
-        <v>-265.32058355193919</v>
+        <v>1933.960851985503</v>
       </c>
       <c r="G71">
-        <v>-223.74841930714561</v>
+        <v>2034.648366727746</v>
       </c>
       <c r="H71">
-        <v>-444.83276114083333</v>
+        <v>1533.736515206853</v>
       </c>
       <c r="I71">
-        <v>-324.33677263098127</v>
+        <v>1813.8900604512321</v>
       </c>
       <c r="J71">
-        <v>-263.00386534076472</v>
+        <v>1902.833145228801</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2679,31 +2675,31 @@
         <v>169</v>
       </c>
       <c r="B72">
-        <v>-887.61001756726239</v>
+        <v>701.36396049375048</v>
       </c>
       <c r="C72">
-        <v>-661.25228704130529</v>
+        <v>1122.149444709047</v>
       </c>
       <c r="D72">
-        <v>-674.45437148885981</v>
+        <v>1106.114113470851</v>
       </c>
       <c r="E72">
-        <v>-606.82684323888532</v>
+        <v>1233.1823988839531</v>
       </c>
       <c r="F72">
-        <v>-333.01803800168568</v>
+        <v>1877.8198108331831</v>
       </c>
       <c r="G72">
-        <v>-268.21540276356711</v>
+        <v>2028.380195867247</v>
       </c>
       <c r="H72">
-        <v>-514.26777413252353</v>
+        <v>1396.139671657289</v>
       </c>
       <c r="I72">
-        <v>-297.25826214577882</v>
+        <v>1948.043833565868</v>
       </c>
       <c r="J72">
-        <v>-212.96912947372999</v>
+        <v>2086.8065705188101</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2711,31 +2707,31 @@
         <v>208</v>
       </c>
       <c r="B73">
-        <v>-956.65302190143461</v>
+        <v>621.1013893624646</v>
       </c>
       <c r="C73">
-        <v>-706.81709954356484</v>
+        <v>1110.6141917526991</v>
       </c>
       <c r="D73">
-        <v>-728.9374186623354</v>
+        <v>1080.2007758738</v>
       </c>
       <c r="E73">
-        <v>-662.50303949760018</v>
+        <v>1213.5681893285059</v>
       </c>
       <c r="F73">
-        <v>-433.19338634927499</v>
+        <v>1749.158019194814</v>
       </c>
       <c r="G73">
-        <v>-299.01534207496383</v>
+        <v>2119.4911994805748</v>
       </c>
       <c r="H73">
-        <v>-551.34751470665196</v>
+        <v>1409.969675923322</v>
       </c>
       <c r="I73">
-        <v>-370.60169930147708</v>
+        <v>1898.377481455419</v>
       </c>
       <c r="J73">
-        <v>-208.35436348880091</v>
+        <v>2297.5190776283971</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2743,31 +2739,31 @@
         <v>733</v>
       </c>
       <c r="B74">
-        <v>-924.70561998335836</v>
+        <v>674.4247362183205</v>
       </c>
       <c r="C74">
-        <v>-707.06947190777953</v>
+        <v>1090.858427805505</v>
       </c>
       <c r="D74">
-        <v>-709.34291882480306</v>
+        <v>1099.5235327344731</v>
       </c>
       <c r="E74">
-        <v>-637.58949564746058</v>
+        <v>1237.933678154777</v>
       </c>
       <c r="F74">
-        <v>-377.36792326778169</v>
+        <v>1845.4217406228929</v>
       </c>
       <c r="G74">
-        <v>-273.45945807495121</v>
+        <v>2125.6082578260339</v>
       </c>
       <c r="H74">
-        <v>-532.61489183676656</v>
+        <v>1424.458518978827</v>
       </c>
       <c r="I74">
-        <v>-399.01866903656958</v>
+        <v>1785.469392046318</v>
       </c>
       <c r="J74">
-        <v>-206.9427654868295</v>
+        <v>2216.3017156128531</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2775,31 +2771,31 @@
         <v>817</v>
       </c>
       <c r="B75">
-        <v>-1251.903366573297</v>
+        <v>632.33748259276126</v>
       </c>
       <c r="C75">
-        <v>-1033.505187725513</v>
+        <v>1085.6633085938911</v>
       </c>
       <c r="D75">
-        <v>-1044.8728521859441</v>
+        <v>1078.000221412681</v>
       </c>
       <c r="E75">
-        <v>-985.31388685891216</v>
+        <v>1203.6948821087169</v>
       </c>
       <c r="F75">
-        <v>-738.05240837970916</v>
+        <v>1879.2329046317629</v>
       </c>
       <c r="G75">
-        <v>-678.98692750100201</v>
+        <v>2052.4195482408222</v>
       </c>
       <c r="H75">
-        <v>-890.46761596876638</v>
+        <v>1395.5735635071319</v>
       </c>
       <c r="I75">
-        <v>-722.53262142720541</v>
+        <v>1900.247446386991</v>
       </c>
       <c r="J75">
-        <v>-573.20856339588704</v>
+        <v>2272.8306425252422</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2807,31 +2803,31 @@
         <v>546</v>
       </c>
       <c r="B76">
-        <v>-1120.0710462788379</v>
+        <v>768.9580934948815</v>
       </c>
       <c r="C76">
-        <v>-930.38029441404501</v>
+        <v>1146.357844429514</v>
       </c>
       <c r="D76">
-        <v>-898.73647484375124</v>
+        <v>1211.342634705338</v>
       </c>
       <c r="E76">
-        <v>-867.42532748785129</v>
+        <v>1279.1662118552999</v>
       </c>
       <c r="F76">
-        <v>-628.31955835792144</v>
+        <v>1784.7766162890259</v>
       </c>
       <c r="G76">
-        <v>-500.32325237782089</v>
+        <v>2127.2973182081619</v>
       </c>
       <c r="H76">
-        <v>-744.4882396006924</v>
+        <v>1501.1229620212309</v>
       </c>
       <c r="I76">
-        <v>-639.37583772394214</v>
+        <v>1745.02877039502</v>
       </c>
       <c r="J76">
-        <v>-550.63807940528534</v>
+        <v>1935.9495486015301</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2839,31 +2835,31 @@
         <v>486</v>
       </c>
       <c r="B77">
-        <v>-2352.8960165441381</v>
+        <v>582.5078286628825</v>
       </c>
       <c r="C77">
-        <v>-2187.776124078604</v>
+        <v>1063.03093549241</v>
       </c>
       <c r="D77">
-        <v>-2173.2897829488288</v>
+        <v>1082.9509682028611</v>
       </c>
       <c r="E77">
-        <v>-2142.300822069863</v>
+        <v>1174.3054259550429</v>
       </c>
       <c r="F77">
-        <v>-1950.4637227685589</v>
+        <v>1880.162597355099</v>
       </c>
       <c r="G77">
-        <v>-1855.339014670767</v>
+        <v>2187.9344473127499</v>
       </c>
       <c r="H77">
-        <v>-2068.6494346498039</v>
+        <v>1402.123174730878</v>
       </c>
       <c r="I77">
-        <v>-1923.802294145187</v>
+        <v>1971.242524853858</v>
       </c>
       <c r="J77">
-        <v>-1888.337742053141</v>
+        <v>2155.7420974342172</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2871,31 +2867,31 @@
         <v>774</v>
       </c>
       <c r="B78">
-        <v>-1570.997108422067</v>
+        <v>642.04548845816612</v>
       </c>
       <c r="C78">
-        <v>-1381.565041322109</v>
+        <v>1074.7144540559241</v>
       </c>
       <c r="D78">
-        <v>-1378.445980579206</v>
+        <v>1080.5955468560981</v>
       </c>
       <c r="E78">
-        <v>-1345.6207949254181</v>
+        <v>1148.400304003701</v>
       </c>
       <c r="F78">
-        <v>-1101.64237671565</v>
+        <v>1897.0979752259441</v>
       </c>
       <c r="G78">
-        <v>-985.24269799252647</v>
+        <v>2253.6597547428628</v>
       </c>
       <c r="H78">
-        <v>-1267.4349310941841</v>
+        <v>1334.760060280626</v>
       </c>
       <c r="I78">
-        <v>-1108.092938103083</v>
+        <v>1853.92654358193</v>
       </c>
       <c r="J78">
-        <v>-1017.368506504389</v>
+        <v>2214.7998727947488</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2903,31 +2899,31 @@
         <v>682</v>
       </c>
       <c r="B79">
-        <v>-935.61635770954615</v>
+        <v>650.75089895942915</v>
       </c>
       <c r="C79">
-        <v>-701.62915261089313</v>
+        <v>1095.128865647227</v>
       </c>
       <c r="D79">
-        <v>-711.46094978912015</v>
+        <v>1090.751140722851</v>
       </c>
       <c r="E79">
-        <v>-660.47325636650044</v>
+        <v>1186.938590215281</v>
       </c>
       <c r="F79">
-        <v>-407.16467870122972</v>
+        <v>1810.695324438427</v>
       </c>
       <c r="G79">
-        <v>-320.64870197992548</v>
+        <v>2046.8397316564719</v>
       </c>
       <c r="H79">
-        <v>-563.64085192166954</v>
+        <v>1358.430008874476</v>
       </c>
       <c r="I79">
-        <v>-356.29286668831242</v>
+        <v>1921.600512925455</v>
       </c>
       <c r="J79">
-        <v>-187.61237535117641</v>
+        <v>2338.8649265603849</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2935,31 +2931,31 @@
         <v>174</v>
       </c>
       <c r="B80">
-        <v>-1233.6709526298639</v>
+        <v>651.32242735797865</v>
       </c>
       <c r="C80">
-        <v>-1015.559197741649</v>
+        <v>1119.8781315422109</v>
       </c>
       <c r="D80">
-        <v>-1012.81935061529</v>
+        <v>1134.2759713388591</v>
       </c>
       <c r="E80">
-        <v>-967.42620931449585</v>
+        <v>1231.858490829419</v>
       </c>
       <c r="F80">
-        <v>-739.50787625407634</v>
+        <v>1767.649779423492</v>
       </c>
       <c r="G80">
-        <v>-641.71605337097446</v>
+        <v>2064.5123274403531</v>
       </c>
       <c r="H80">
-        <v>-839.41737384519752</v>
+        <v>1480.9397119484941</v>
       </c>
       <c r="I80">
-        <v>-728.16698942658809</v>
+        <v>1798.145533993179</v>
       </c>
       <c r="J80">
-        <v>-553.80264970746668</v>
+        <v>2251.4176261260168</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2967,31 +2963,31 @@
         <v>958</v>
       </c>
       <c r="B81">
-        <v>-1545.709477414624</v>
+        <v>694.27015623082195</v>
       </c>
       <c r="C81">
-        <v>-1399.2242910228531</v>
+        <v>1003.636620033456</v>
       </c>
       <c r="D81">
-        <v>-1328.8948229049349</v>
+        <v>1153.01686172667</v>
       </c>
       <c r="E81">
-        <v>-1305.6010825448291</v>
+        <v>1213.5916968590061</v>
       </c>
       <c r="F81">
-        <v>-1044.2760299188419</v>
+        <v>2008.992049259494</v>
       </c>
       <c r="G81">
-        <v>-994.93280876333881</v>
+        <v>2229.647991060664</v>
       </c>
       <c r="H81">
-        <v>-1252.242225496477</v>
+        <v>1317.3469121404919</v>
       </c>
       <c r="I81">
-        <v>-1128.2400848460661</v>
+        <v>1736.903892968257</v>
       </c>
       <c r="J81">
-        <v>-992.54183062488733</v>
+        <v>2142.5938197211349</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2999,31 +2995,31 @@
         <v>112</v>
       </c>
       <c r="B82">
-        <v>-1933.7504591974091</v>
+        <v>634.49657100403101</v>
       </c>
       <c r="C82">
-        <v>-1750.04105802498</v>
+        <v>1102.433216704196</v>
       </c>
       <c r="D82">
-        <v>-1758.0727883349971</v>
+        <v>1079.918036109839</v>
       </c>
       <c r="E82">
-        <v>-1700.574068670039</v>
+        <v>1223.77507352456</v>
       </c>
       <c r="F82">
-        <v>-1515.849625231145</v>
+        <v>1814.7802283898441</v>
       </c>
       <c r="G82">
-        <v>-1400.96844855929</v>
+        <v>2178.517762451248</v>
       </c>
       <c r="H82">
-        <v>-1640.7381440817819</v>
+        <v>1380.72585322183</v>
       </c>
       <c r="I82">
-        <v>-1496.3291488862751</v>
+        <v>1853.038406171391</v>
       </c>
       <c r="J82">
-        <v>-1413.228576584766</v>
+        <v>2232.3148524230619</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3031,31 +3027,31 @@
         <v>769</v>
       </c>
       <c r="B83">
-        <v>-1944.8507334317551</v>
+        <v>639.39629774316006</v>
       </c>
       <c r="C83">
-        <v>-1791.221623308948</v>
+        <v>1016.655526171652</v>
       </c>
       <c r="D83">
-        <v>-1779.6112936939271</v>
+        <v>1033.671922482532</v>
       </c>
       <c r="E83">
-        <v>-1723.8590471280479</v>
+        <v>1177.9093412066311</v>
       </c>
       <c r="F83">
-        <v>-1517.855713036565</v>
+        <v>1909.28580200749</v>
       </c>
       <c r="G83">
-        <v>-1382.953665235623</v>
+        <v>2372.494623874778</v>
       </c>
       <c r="H83">
-        <v>-1658.258239134067</v>
+        <v>1368.448993452171</v>
       </c>
       <c r="I83">
-        <v>-1500.7694546255991</v>
+        <v>1945.476164332938</v>
       </c>
       <c r="J83">
-        <v>-1488.4379633416379</v>
+        <v>2036.6613287286459</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3063,31 +3059,31 @@
         <v>148</v>
       </c>
       <c r="B84">
-        <v>-1276.4522227452719</v>
+        <v>606.00289164010042</v>
       </c>
       <c r="C84">
-        <v>-1090.4170541066719</v>
+        <v>1005.647274479526</v>
       </c>
       <c r="D84">
-        <v>-1030.8046952003001</v>
+        <v>1121.149269927238</v>
       </c>
       <c r="E84">
-        <v>-1023.133375297765</v>
+        <v>1162.839410384207</v>
       </c>
       <c r="F84">
-        <v>-738.07317009111625</v>
+        <v>1957.280704113185</v>
       </c>
       <c r="G84">
-        <v>-650.70870913096201</v>
+        <v>2197.521866733663</v>
       </c>
       <c r="H84">
-        <v>-900.45100892913979</v>
+        <v>1421.0691419854661</v>
       </c>
       <c r="I84">
-        <v>-769.71101666014908</v>
+        <v>1848.1265308531069</v>
       </c>
       <c r="J84">
-        <v>-630.03852512809942</v>
+        <v>2180.3629098835072</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3095,31 +3091,31 @@
         <v>664</v>
       </c>
       <c r="B85">
-        <v>-1203.3819433567171</v>
+        <v>727.22173516502266</v>
       </c>
       <c r="C85">
-        <v>-1070.4973142620479</v>
+        <v>986.68349556907924</v>
       </c>
       <c r="D85">
-        <v>-1000.946258385191</v>
+        <v>1128.892105019293</v>
       </c>
       <c r="E85">
-        <v>-953.00326564077909</v>
+        <v>1237.8556565711019</v>
       </c>
       <c r="F85">
-        <v>-708.73877407686848</v>
+        <v>1885.9483953957149</v>
       </c>
       <c r="G85">
-        <v>-642.62932573476223</v>
+        <v>2107.0649383916448</v>
       </c>
       <c r="H85">
-        <v>-881.6469564319101</v>
+        <v>1374.5436801259691</v>
       </c>
       <c r="I85">
-        <v>-735.64622375344675</v>
+        <v>1793.2587890712</v>
       </c>
       <c r="J85">
-        <v>-559.96385678391721</v>
+        <v>2258.5312046909762</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3127,31 +3123,31 @@
         <v>972</v>
       </c>
       <c r="B86">
-        <v>-1614.0778421204991</v>
+        <v>606.54067623704202</v>
       </c>
       <c r="C86">
-        <v>-1445.204094831166</v>
+        <v>994.30629355002532</v>
       </c>
       <c r="D86">
-        <v>-1406.4737093258909</v>
+        <v>1086.2197451926611</v>
       </c>
       <c r="E86">
-        <v>-1366.456692866509</v>
+        <v>1189.5293608046029</v>
       </c>
       <c r="F86">
-        <v>-1157.6268469784111</v>
+        <v>1840.6663748307631</v>
       </c>
       <c r="G86">
-        <v>-1056.777544275114</v>
+        <v>2231.408602253995</v>
       </c>
       <c r="H86">
-        <v>-1289.610172985193</v>
+        <v>1347.5602269802321</v>
       </c>
       <c r="I86">
-        <v>-1142.0270814499679</v>
+        <v>1872.6198044067819</v>
       </c>
       <c r="J86">
-        <v>-993.25400623134067</v>
+        <v>2331.148915743895</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3159,31 +3155,31 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>-2318.24679963686</v>
+        <v>612.84033378071956</v>
       </c>
       <c r="C87">
-        <v>-2152.370878904389</v>
+        <v>1109.362025237393</v>
       </c>
       <c r="D87">
-        <v>-2139.7112626427211</v>
+        <v>1132.6512917972891</v>
       </c>
       <c r="E87">
-        <v>-2096.0566636680342</v>
+        <v>1254.4505799983631</v>
       </c>
       <c r="F87">
-        <v>-1902.305936702051</v>
+        <v>1863.4116651654269</v>
       </c>
       <c r="G87">
-        <v>-1818.2263155266819</v>
+        <v>2159.90480762469</v>
       </c>
       <c r="H87">
-        <v>-2007.6111935272711</v>
+        <v>1503.888010676236</v>
       </c>
       <c r="I87">
-        <v>-1944.7528518756269</v>
+        <v>1692.6371425807661</v>
       </c>
       <c r="J87">
-        <v>-1840.3496381566299</v>
+        <v>2170.8541431391159</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3191,31 +3187,31 @@
         <v>454</v>
       </c>
       <c r="B88">
-        <v>-1612.818363253587</v>
+        <v>596.67603960121551</v>
       </c>
       <c r="C88">
-        <v>-1403.719088052947</v>
+        <v>1076.6828039546249</v>
       </c>
       <c r="D88">
-        <v>-1419.784803611853</v>
+        <v>1063.239806265472</v>
       </c>
       <c r="E88">
-        <v>-1361.01889919826</v>
+        <v>1194.337861498592</v>
       </c>
       <c r="F88">
-        <v>-1150.9571094011369</v>
+        <v>1821.973285850077</v>
       </c>
       <c r="G88">
-        <v>-1047.6225249003321</v>
+        <v>2219.4976010210139</v>
       </c>
       <c r="H88">
-        <v>-1273.0866734509571</v>
+        <v>1375.302212840073</v>
       </c>
       <c r="I88">
-        <v>-1140.578909204823</v>
+        <v>1837.3856616759931</v>
       </c>
       <c r="J88">
-        <v>-985.60562415331174</v>
+        <v>2314.9047272929388</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3223,31 +3219,31 @@
         <v>455</v>
       </c>
       <c r="B89">
-        <v>-1926.412796420434</v>
+        <v>646.91330703829169</v>
       </c>
       <c r="C89">
-        <v>-1749.727881906364</v>
+        <v>1061.254075243289</v>
       </c>
       <c r="D89">
-        <v>-1744.0617903311049</v>
+        <v>1091.1510993427189</v>
       </c>
       <c r="E89">
-        <v>-1707.406808510209</v>
+        <v>1187.9367579834341</v>
       </c>
       <c r="F89">
-        <v>-1512.015094258395</v>
+        <v>1811.8341859293571</v>
       </c>
       <c r="G89">
-        <v>-1426.155136227386</v>
+        <v>2190.762507967268</v>
       </c>
       <c r="H89">
-        <v>-1627.6862491631341</v>
+        <v>1356.7020449849399</v>
       </c>
       <c r="I89">
-        <v>-1492.613127941517</v>
+        <v>1857.7461833007151</v>
       </c>
       <c r="J89">
-        <v>-1367.63425869759</v>
+        <v>2295.6998382099878</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3255,31 +3251,31 @@
         <v>80</v>
       </c>
       <c r="B90">
-        <v>-2785.6897865138749</v>
+        <v>571.78574601887726</v>
       </c>
       <c r="C90">
-        <v>-2632.0421440739178</v>
+        <v>1055.839439775008</v>
       </c>
       <c r="D90">
-        <v>-2617.0462391373349</v>
+        <v>1081.0154965853151</v>
       </c>
       <c r="E90">
-        <v>-2591.3647874220992</v>
+        <v>1172.468218063269</v>
       </c>
       <c r="F90">
-        <v>-2423.4031676098798</v>
+        <v>1839.3558833671359</v>
       </c>
       <c r="G90">
-        <v>-2317.4312620667151</v>
+        <v>2302.3660953389331</v>
       </c>
       <c r="H90">
-        <v>-2536.405723393359</v>
+        <v>1332.797990220902</v>
       </c>
       <c r="I90">
-        <v>-2415.9522051070762</v>
+        <v>1855.5934501075039</v>
       </c>
       <c r="J90">
-        <v>-2353.7172002719922</v>
+        <v>2288.777680523056</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3287,31 +3283,31 @@
         <v>429</v>
       </c>
       <c r="B91">
-        <v>-2753.5425340284528</v>
+        <v>613.62274635141</v>
       </c>
       <c r="C91">
-        <v>-2607.1536394725931</v>
+        <v>1054.5176112267609</v>
       </c>
       <c r="D91">
-        <v>-2605.0675334604189</v>
+        <v>1051.2148929950281</v>
       </c>
       <c r="E91">
-        <v>-2557.8741519551209</v>
+        <v>1194.9524689795769</v>
       </c>
       <c r="F91">
-        <v>-2387.372983743654</v>
+        <v>1893.6690020041581</v>
       </c>
       <c r="G91">
-        <v>-2301.1364546956061</v>
+        <v>2204.774344868275</v>
       </c>
       <c r="H91">
-        <v>-2503.2727655178528</v>
+        <v>1368.872718854806</v>
       </c>
       <c r="I91">
-        <v>-2367.6573008049431</v>
+        <v>1965.778060450529</v>
       </c>
       <c r="J91">
-        <v>-2340.7515731198969</v>
+        <v>2152.5981542694558</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3319,31 +3315,31 @@
         <v>16</v>
       </c>
       <c r="B92">
-        <v>-2360.037912811712</v>
+        <v>576.97817261176328</v>
       </c>
       <c r="C92">
-        <v>-2179.1318927677698</v>
+        <v>1102.4323513953971</v>
       </c>
       <c r="D92">
-        <v>-2191.3178916129468</v>
+        <v>1065.6919374202521</v>
       </c>
       <c r="E92">
-        <v>-2156.9917590013661</v>
+        <v>1160.3966835264889</v>
       </c>
       <c r="F92">
-        <v>-1957.872102586846</v>
+        <v>1883.810156540404</v>
       </c>
       <c r="G92">
-        <v>-1854.487093948092</v>
+        <v>2265.7109457967231</v>
       </c>
       <c r="H92">
-        <v>-2084.862690545041</v>
+        <v>1355.0764169432359</v>
       </c>
       <c r="I92">
-        <v>-1955.7851267254659</v>
+        <v>1865.8781731967149</v>
       </c>
       <c r="J92">
-        <v>-1890.107899029309</v>
+        <v>2224.0251625690212</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3351,31 +3347,31 @@
         <v>46</v>
       </c>
       <c r="B93">
-        <v>-2357.3571256482578</v>
+        <v>594.42070914142937</v>
       </c>
       <c r="C93">
-        <v>-2199.254717694896</v>
+        <v>1037.413981184028</v>
       </c>
       <c r="D93">
-        <v>-2180.8831111960931</v>
+        <v>1073.56000813168</v>
       </c>
       <c r="E93">
-        <v>-2144.8835204314132</v>
+        <v>1182.8117755886551</v>
       </c>
       <c r="F93">
-        <v>-1994.1663856832879</v>
+        <v>1679.836063369444</v>
       </c>
       <c r="G93">
-        <v>-1859.1004900007979</v>
+        <v>2275.2870985180371</v>
       </c>
       <c r="H93">
-        <v>-2070.9959296928582</v>
+        <v>1391.4346354118661</v>
       </c>
       <c r="I93">
-        <v>-1941.180948762724</v>
+        <v>1914.1113233728061</v>
       </c>
       <c r="J93">
-        <v>-1872.9579982920079</v>
+        <v>2351.124405282053</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3383,31 +3379,31 @@
         <v>198</v>
       </c>
       <c r="B94">
-        <v>-1544.9056759944031</v>
+        <v>678.33513535047211</v>
       </c>
       <c r="C94">
-        <v>-1365.8110585566201</v>
+        <v>1088.420827362206</v>
       </c>
       <c r="D94">
-        <v>-1335.8001374066539</v>
+        <v>1154.5459428778829</v>
       </c>
       <c r="E94">
-        <v>-1295.4013765172281</v>
+        <v>1254.5335990845581</v>
       </c>
       <c r="F94">
-        <v>-1067.9915825523269</v>
+        <v>1838.187319304008</v>
       </c>
       <c r="G94">
-        <v>-971.52961602129994</v>
+        <v>2153.085161735853</v>
       </c>
       <c r="H94">
-        <v>-1179.839129755693</v>
+        <v>1506.844100619212</v>
       </c>
       <c r="I94">
-        <v>-1075.7639497225789</v>
+        <v>1818.8316354319909</v>
       </c>
       <c r="J94">
-        <v>-986.92768301626734</v>
+        <v>2007.2162782338121</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3415,31 +3411,31 @@
         <v>549</v>
       </c>
       <c r="B95">
-        <v>-1916.3804848444561</v>
+        <v>641.57019956047202</v>
       </c>
       <c r="C95">
-        <v>-1742.6752635833609</v>
+        <v>1082.039542595772</v>
       </c>
       <c r="D95">
-        <v>-1723.777229652439</v>
+        <v>1132.0458111296091</v>
       </c>
       <c r="E95">
-        <v>-1683.105585557691</v>
+        <v>1235.2523235809799</v>
       </c>
       <c r="F95">
-        <v>-1482.887719295506</v>
+        <v>1862.14427803587</v>
       </c>
       <c r="G95">
-        <v>-1435.677834858129</v>
+        <v>2029.513836102765</v>
       </c>
       <c r="H95">
-        <v>-1606.3805181834359</v>
+        <v>1405.807943471365</v>
       </c>
       <c r="I95">
-        <v>-1425.6149945996431</v>
+        <v>2037.614821456677</v>
       </c>
       <c r="J95">
-        <v>-1392.13806142663</v>
+        <v>2074.011244066488</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3447,31 +3443,31 @@
         <v>313</v>
       </c>
       <c r="B96">
-        <v>-2700.6866963701841</v>
+        <v>650.11901508055951</v>
       </c>
       <c r="C96">
-        <v>-2549.041674994844</v>
+        <v>1131.29523949605</v>
       </c>
       <c r="D96">
-        <v>-2545.3588036543701</v>
+        <v>1133.6901271481379</v>
       </c>
       <c r="E96">
-        <v>-2491.044951105971</v>
+        <v>1281.9720183850011</v>
       </c>
       <c r="F96">
-        <v>-2328.802450636756</v>
+        <v>1828.08416273275</v>
       </c>
       <c r="G96">
-        <v>-2245.7079373646952</v>
+        <v>2105.6039804827369</v>
       </c>
       <c r="H96">
-        <v>-2409.3722691244252</v>
+        <v>1519.7793457510779</v>
       </c>
       <c r="I96">
-        <v>-2336.2921842294459</v>
+        <v>1778.350258984271</v>
       </c>
       <c r="J96">
-        <v>-2285.2307044014601</v>
+        <v>2071.105851939416</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3479,31 +3475,31 @@
         <v>423</v>
       </c>
       <c r="B97">
-        <v>-2701.5333016328568</v>
+        <v>650.62844056340714</v>
       </c>
       <c r="C97">
-        <v>-2561.9915915868341</v>
+        <v>1106.1440875995991</v>
       </c>
       <c r="D97">
-        <v>-2542.2073656543771</v>
+        <v>1143.9222256342259</v>
       </c>
       <c r="E97">
-        <v>-2493.5369168373149</v>
+        <v>1282.490538163979</v>
       </c>
       <c r="F97">
-        <v>-2336.0040192650422</v>
+        <v>1814.289328804862</v>
       </c>
       <c r="G97">
-        <v>-2239.5041884106108</v>
+        <v>2156.320114944293</v>
       </c>
       <c r="H97">
-        <v>-2423.6848470612158</v>
+        <v>1491.9294312751349</v>
       </c>
       <c r="I97">
-        <v>-2336.8930082820821</v>
+        <v>1810.5142137083801</v>
       </c>
       <c r="J97">
-        <v>-2290.757689044091</v>
+        <v>2043.7616193061151</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3511,31 +3507,31 @@
         <v>735</v>
       </c>
       <c r="B98">
-        <v>-1617.6087083480429</v>
+        <v>602.86483422860624</v>
       </c>
       <c r="C98">
-        <v>-1429.3930260149109</v>
+        <v>1024.943590826796</v>
       </c>
       <c r="D98">
-        <v>-1418.1166284945621</v>
+        <v>1064.067476536989</v>
       </c>
       <c r="E98">
-        <v>-1380.256387651862</v>
+        <v>1160.7372985180659</v>
       </c>
       <c r="F98">
-        <v>-1137.753554076608</v>
+        <v>1908.5660625459441</v>
       </c>
       <c r="G98">
-        <v>-1078.9559201931979</v>
+        <v>2133.879538948765</v>
       </c>
       <c r="H98">
-        <v>-1273.153705651072</v>
+        <v>1415.7020260708609</v>
       </c>
       <c r="I98">
-        <v>-1145.296369791457</v>
+        <v>1872.881756908751</v>
       </c>
       <c r="J98">
-        <v>-988.23351850694655</v>
+        <v>2316.3574154152188</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3543,31 +3539,31 @@
         <v>281</v>
       </c>
       <c r="B99">
-        <v>-1933.199799738918</v>
+        <v>649.93703272985601</v>
       </c>
       <c r="C99">
-        <v>-1762.2493709559969</v>
+        <v>1062.276955576905</v>
       </c>
       <c r="D99">
-        <v>-1761.786657331023</v>
+        <v>1068.348381698544</v>
       </c>
       <c r="E99">
-        <v>-1719.731388099751</v>
+        <v>1183.1717317433061</v>
       </c>
       <c r="F99">
-        <v>-1527.7313211212561</v>
+        <v>1803.8334870870631</v>
       </c>
       <c r="G99">
-        <v>-1449.1502256448071</v>
+        <v>2129.312337957349</v>
       </c>
       <c r="H99">
-        <v>-1620.106539964987</v>
+        <v>1413.5524929149151</v>
       </c>
       <c r="I99">
-        <v>-1492.3687599517359</v>
+        <v>1912.0659111698651</v>
       </c>
       <c r="J99">
-        <v>-1373.683609340995</v>
+        <v>2277.5016691221949</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3575,31 +3571,31 @@
         <v>178</v>
       </c>
       <c r="B100">
-        <v>-2032.825567519164</v>
+        <v>896.23846561184143</v>
       </c>
       <c r="C100">
-        <v>-1921.4292569846009</v>
+        <v>1134.8526832808091</v>
       </c>
       <c r="D100">
-        <v>-1852.7503669682919</v>
+        <v>1292.2115723547261</v>
       </c>
       <c r="E100">
-        <v>-1824.3490897008171</v>
+        <v>1361.615500664811</v>
       </c>
       <c r="F100">
-        <v>-1669.7331355270669</v>
+        <v>1779.1396341785371</v>
       </c>
       <c r="G100">
-        <v>-1626.7785184884401</v>
+        <v>1966.5434272887151</v>
       </c>
       <c r="H100">
-        <v>-1803.575940661462</v>
+        <v>1402.619055990928</v>
       </c>
       <c r="I100">
-        <v>-1696.5534759766499</v>
+        <v>1692.430022565645</v>
       </c>
       <c r="J100">
-        <v>-1587.8857110899089</v>
+        <v>1974.3496380639911</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3607,72 +3603,69 @@
         <v>592</v>
       </c>
       <c r="B101">
-        <v>-2383.9559937094168</v>
+        <v>578.51189990491594</v>
       </c>
       <c r="C101">
-        <v>-2213.7938726685161</v>
+        <v>1035.8078238701</v>
       </c>
       <c r="D101">
-        <v>-2212.8893937809648</v>
+        <v>1064.509774585463</v>
       </c>
       <c r="E101">
-        <v>-2167.1511780615219</v>
+        <v>1206.868210642411</v>
       </c>
       <c r="F101">
-        <v>-1997.1800458559401</v>
+        <v>1799.930580469</v>
       </c>
       <c r="G101">
-        <v>-1906.443000698521</v>
+        <v>2260.798581243112</v>
       </c>
       <c r="H101">
-        <v>-2083.8872274190612</v>
+        <v>1406.7755497780811</v>
       </c>
       <c r="I101">
-        <v>-1972.5872149247889</v>
+        <v>1890.8741817694299</v>
       </c>
       <c r="J101">
-        <v>-1870.8956337415491</v>
+        <v>2255.923397737487</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
       <c r="B102">
         <f>SUM(B2:B101)/100</f>
-        <v>-524.54101007971758</v>
+        <v>677.3176790543755</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:J102" si="0">SUM(C2:C101)/100</f>
-        <v>-138.13575936425673</v>
+        <v>1090.5826758268613</v>
       </c>
       <c r="D102">
         <f t="shared" si="0"/>
-        <v>-112.47274046662935</v>
+        <v>1125.013500869635</v>
       </c>
       <c r="E102">
         <f t="shared" si="0"/>
-        <v>-31.320795180380276</v>
+        <v>1228.7470932207593</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
-        <v>686.20434675498279</v>
+        <v>1845.516406895131</v>
       </c>
       <c r="G102">
         <f t="shared" si="0"/>
-        <v>768.73993896721265</v>
+        <v>2153.5700000515844</v>
       </c>
       <c r="H102">
         <f t="shared" si="0"/>
-        <v>113.96896907127197</v>
+        <v>1401.2508791609941</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>492.75873597928131</v>
+        <v>1827.9314872930775</v>
       </c>
       <c r="J102">
         <f t="shared" si="0"/>
-        <v>750.06881075653689</v>
+        <v>2150.0702776275812</v>
       </c>
     </row>
   </sheetData>
